--- a/teaching/traditional_assets/database/data/united_kingdom/united_kingdom_computers_peripherals.xlsx
+++ b/teaching/traditional_assets/database/data/united_kingdom/united_kingdom_computers_peripherals.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="aim_cnc" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,121 +593,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0411</v>
+        <v>-0.05350000000000001</v>
       </c>
       <c r="E2">
-        <v>0.456</v>
+        <v>0.00352</v>
       </c>
       <c r="G2">
-        <v>0.2748004561003421</v>
+        <v>0.1346246973365618</v>
       </c>
       <c r="H2">
-        <v>0.07981755986316989</v>
+        <v>-0.01162227602905569</v>
       </c>
       <c r="I2">
-        <v>-0.2947550065261479</v>
+        <v>-0.08521496102185552</v>
       </c>
       <c r="J2">
-        <v>-0.2866070994999918</v>
+        <v>-0.08521496102185552</v>
       </c>
       <c r="K2">
-        <v>-72.25</v>
+        <v>-26.84</v>
       </c>
       <c r="L2">
-        <v>-0.8238312428734321</v>
+        <v>-0.3249394673123487</v>
       </c>
       <c r="M2">
-        <v>3.111</v>
+        <v>2.25</v>
       </c>
       <c r="N2">
-        <v>0.02417249417249417</v>
+        <v>0.007452798940046373</v>
       </c>
       <c r="O2">
-        <v>-0.04305882352941176</v>
+        <v>-0.0838301043219076</v>
       </c>
       <c r="P2">
-        <v>3.11</v>
+        <v>2.25</v>
       </c>
       <c r="Q2">
-        <v>0.02416472416472417</v>
+        <v>0.007452798940046373</v>
       </c>
       <c r="R2">
-        <v>-0.04304498269896194</v>
+        <v>-0.0838301043219076</v>
       </c>
       <c r="S2">
-        <v>0.001000000000000001</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0003214400514304085</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>34.7</v>
+        <v>40.7</v>
       </c>
       <c r="V2">
-        <v>0.2696192696192697</v>
+        <v>0.1348128519377277</v>
       </c>
       <c r="W2">
-        <v>-0.09885551228082863</v>
+        <v>-0.08612239761245551</v>
       </c>
       <c r="X2">
-        <v>0.1004033501321854</v>
+        <v>0.07568912795869798</v>
       </c>
       <c r="Y2">
-        <v>-0.199258862413014</v>
+        <v>-0.1618115255711535</v>
       </c>
       <c r="Z2">
-        <v>0.540440375742954</v>
+        <v>0.8990595683245398</v>
       </c>
       <c r="AA2">
-        <v>0.0005424307135957207</v>
+        <v>0.04270798767784843</v>
       </c>
       <c r="AB2">
-        <v>0.09592433627284519</v>
+        <v>0.07487379143304691</v>
       </c>
       <c r="AC2">
-        <v>-0.09538190555924947</v>
+        <v>-0.03216580375519848</v>
       </c>
       <c r="AD2">
-        <v>3.57</v>
+        <v>4.29</v>
       </c>
       <c r="AE2">
-        <v>4.755070361715839</v>
+        <v>1.14377890202633</v>
       </c>
       <c r="AF2">
-        <v>8.325070361715838</v>
+        <v>5.433778902026329</v>
       </c>
       <c r="AG2">
-        <v>-26.37492963828416</v>
+        <v>-35.26622109797367</v>
       </c>
       <c r="AH2">
-        <v>0.06075581891503137</v>
+        <v>0.01768038294208637</v>
       </c>
       <c r="AI2">
-        <v>0.05962446672469868</v>
+        <v>0.04715439304169846</v>
       </c>
       <c r="AJ2">
-        <v>-0.2577562814767645</v>
+        <v>-0.1322646411988637</v>
       </c>
       <c r="AK2">
-        <v>-0.2513691870528172</v>
+        <v>-0.4731575618127541</v>
       </c>
       <c r="AL2">
-        <v>0.058</v>
+        <v>0.252</v>
       </c>
       <c r="AM2">
-        <v>-0.22</v>
+        <v>0.03900000000000001</v>
       </c>
       <c r="AN2">
-        <v>-0.190715315989102</v>
+        <v>-2.033175355450237</v>
       </c>
       <c r="AO2">
-        <v>-450.3448275862069</v>
+        <v>-28.09523809523809</v>
       </c>
       <c r="AP2">
-        <v>1.408992448222884</v>
+        <v>16.71384886159889</v>
       </c>
       <c r="AQ2">
-        <v>118.7272727272727</v>
+        <v>-181.5384615384615</v>
       </c>
     </row>
     <row r="3">
@@ -725,46 +727,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0858</v>
+        <v>0.025</v>
       </c>
       <c r="E3">
-        <v>0.456</v>
+        <v>0.00352</v>
       </c>
       <c r="G3">
-        <v>0.3431034482758621</v>
+        <v>0.4063559322033898</v>
       </c>
       <c r="H3">
-        <v>0.1836206896551724</v>
+        <v>0.2169491525423729</v>
       </c>
       <c r="I3">
-        <v>0.2025488192553414</v>
+        <v>0.1678493313387599</v>
       </c>
       <c r="J3">
-        <v>0.1913507129568225</v>
+        <v>0.1678493313387599</v>
       </c>
       <c r="K3">
-        <v>5.45</v>
+        <v>3.46</v>
       </c>
       <c r="L3">
-        <v>0.2349137931034483</v>
+        <v>0.1466101694915254</v>
       </c>
       <c r="M3">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="N3">
-        <v>0.02950138504155124</v>
+        <v>0.01987632508833922</v>
       </c>
       <c r="O3">
-        <v>0.3908256880733945</v>
+        <v>0.6502890173410405</v>
       </c>
       <c r="P3">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="Q3">
-        <v>0.02950138504155124</v>
+        <v>0.01987632508833922</v>
       </c>
       <c r="R3">
-        <v>0.3908256880733945</v>
+        <v>0.6502890173410405</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,70 +775,70 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>11.5</v>
+        <v>12.4</v>
       </c>
       <c r="V3">
-        <v>0.1592797783933518</v>
+        <v>0.1095406360424028</v>
       </c>
       <c r="W3">
-        <v>0.2171314741035857</v>
+        <v>0.1262773722627737</v>
       </c>
       <c r="X3">
-        <v>0.09700849164003837</v>
+        <v>0.07535398293718944</v>
       </c>
       <c r="Y3">
-        <v>0.1201229824635473</v>
+        <v>0.05092338932558428</v>
       </c>
       <c r="Z3">
-        <v>1.13174392118383</v>
+        <v>1.384669452453071</v>
       </c>
       <c r="AA3">
-        <v>0.2165600062030758</v>
+        <v>0.2324158417194548</v>
       </c>
       <c r="AB3">
-        <v>0.09584203933630787</v>
+        <v>0.07485254046465549</v>
       </c>
       <c r="AC3">
-        <v>0.120717966866768</v>
+        <v>0.1575633012547993</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>1.2093369663804</v>
+        <v>1.14377890202633</v>
       </c>
       <c r="AF3">
-        <v>1.2093369663804</v>
+        <v>1.14377890202633</v>
       </c>
       <c r="AG3">
-        <v>-10.2906630336196</v>
+        <v>-11.25622109797367</v>
       </c>
       <c r="AH3">
-        <v>0.0164738848810778</v>
+        <v>0.01000298322313065</v>
       </c>
       <c r="AI3">
-        <v>0.04227070930729798</v>
+        <v>0.03897858233751026</v>
       </c>
       <c r="AJ3">
-        <v>-0.1662215028923327</v>
+        <v>-0.1104159686761418</v>
       </c>
       <c r="AK3">
-        <v>-0.6014647472219763</v>
+        <v>-0.6643276663995847</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.102</v>
       </c>
       <c r="AM3">
-        <v>-0.113</v>
+        <v>0</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
+      <c r="AO3">
+        <v>38.43137254901961</v>
+      </c>
       <c r="AP3">
-        <v>-1.898296077037373</v>
-      </c>
-      <c r="AQ3">
-        <v>-41.41592920353982</v>
+        <v>-2.447004586516015</v>
       </c>
     </row>
     <row r="4">
@@ -856,118 +858,8833 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.168</v>
+        <v>-0.132</v>
       </c>
       <c r="G4">
-        <v>0.2502325581395349</v>
+        <v>0.02593220338983051</v>
       </c>
       <c r="H4">
-        <v>0.04248062015503876</v>
+        <v>-0.1030508474576271</v>
       </c>
       <c r="I4">
-        <v>-0.4736301810708076</v>
+        <v>-0.1864406779661017</v>
       </c>
       <c r="J4">
-        <v>-0.4736301810708076</v>
+        <v>-0.1864406779661017</v>
       </c>
       <c r="K4">
-        <v>-77.7</v>
+        <v>-30.3</v>
       </c>
       <c r="L4">
-        <v>-1.204651162790698</v>
+        <v>-0.5135593220338983</v>
       </c>
       <c r="M4">
-        <v>0.981</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.01736283185840708</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>-0.01262548262548262</v>
+        <v>0</v>
       </c>
       <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>28.3</v>
+      </c>
+      <c r="V4">
+        <v>0.1499735029146794</v>
+      </c>
+      <c r="W4">
+        <v>-0.2985221674876847</v>
+      </c>
+      <c r="X4">
+        <v>0.07602427298020653</v>
+      </c>
+      <c r="Y4">
+        <v>-0.3745464404678913</v>
+      </c>
+      <c r="Z4">
+        <v>0.7884538286783377</v>
+      </c>
+      <c r="AA4">
+        <v>-0.1469998663637579</v>
+      </c>
+      <c r="AB4">
+        <v>0.07489504240143834</v>
+      </c>
+      <c r="AC4">
+        <v>-0.2218949087651962</v>
+      </c>
+      <c r="AD4">
+        <v>4.29</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>4.29</v>
+      </c>
+      <c r="AG4">
+        <v>-24.01</v>
+      </c>
+      <c r="AH4">
+        <v>0.02222913104305923</v>
+      </c>
+      <c r="AI4">
+        <v>0.04994760740482012</v>
+      </c>
+      <c r="AJ4">
+        <v>-0.1457890582306151</v>
+      </c>
+      <c r="AK4">
+        <v>-0.4169126584476472</v>
+      </c>
+      <c r="AL4">
+        <v>0.15</v>
+      </c>
+      <c r="AM4">
+        <v>0.03899999999999999</v>
+      </c>
+      <c r="AN4">
+        <v>-0.639344262295082</v>
+      </c>
+      <c r="AO4">
+        <v>-73.33333333333334</v>
+      </c>
+      <c r="AP4">
+        <v>3.578241430700448</v>
+      </c>
+      <c r="AQ4">
+        <v>-282.0512820512821</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Concurrent Technologies Plc (AIM:CNC)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AIM:CNC</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Computers/Peripherals</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.0100029832231307</v>
+      </c>
+      <c r="F2">
+        <v>0.09</v>
+      </c>
+      <c r="G2">
+        <v>113.2</v>
+      </c>
+      <c r="H2">
+        <v>105.144464594475</v>
+      </c>
+      <c r="I2">
+        <v>101.943778902026</v>
+      </c>
+      <c r="J2">
+        <v>103.035404695658</v>
+      </c>
+      <c r="K2">
+        <v>1.14377890202633</v>
+      </c>
+      <c r="L2">
+        <v>10.2909401011824</v>
+      </c>
+      <c r="M2">
+        <v>0.0748525404646555</v>
+      </c>
+      <c r="N2">
+        <v>0.0741580331327277</v>
+      </c>
+      <c r="O2">
+        <v>0.0252246903703056</v>
+      </c>
+      <c r="P2">
+        <v>0.014418</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.0753539829371894</v>
+      </c>
+      <c r="T2">
+        <v>0.0800663880579425</v>
+      </c>
+      <c r="U2">
+        <v>1.24503359869766</v>
+      </c>
+      <c r="V2">
+        <v>1.3338564439694</v>
+      </c>
+      <c r="W2">
+        <v>10.86370649423407</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>113.2</v>
+      </c>
+      <c r="AB2">
+        <v>0.05305397621902236</v>
+      </c>
+      <c r="AC2">
+        <v>0.03114159304976001</v>
+      </c>
+      <c r="AD2">
+        <v>0.19</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>4.6</v>
+      </c>
+      <c r="AH2">
+        <v>2.61</v>
+      </c>
+      <c r="AI2">
+        <v>0.722</v>
+      </c>
+      <c r="AJ2">
+        <v>1.14377890202633</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0.102</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>12.4</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.07481776694753046</v>
+      </c>
+      <c r="C2">
+        <v>114.3978855040459</v>
+      </c>
+      <c r="D2">
+        <v>101.9978855040459</v>
+      </c>
+      <c r="E2">
+        <v>-1.14377890202633</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>12.4</v>
+      </c>
+      <c r="H2">
+        <v>113.2</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>4.6</v>
+      </c>
+      <c r="K2">
+        <v>2.61</v>
+      </c>
+      <c r="L2">
+        <v>1.99</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1.99</v>
+      </c>
+      <c r="O2">
+        <v>0.3780999999999999</v>
+      </c>
+      <c r="P2">
+        <v>1.6119</v>
+      </c>
+      <c r="Q2">
+        <v>4.2219</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.07481776694753046</v>
+      </c>
+      <c r="T2">
+        <v>1.234926609026511</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.19</v>
+      </c>
+      <c r="W2">
+        <v>0.013122</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.07473150319033016</v>
+      </c>
+      <c r="C3">
+        <v>113.3889199554764</v>
+      </c>
+      <c r="D3">
+        <v>102.1323577444966</v>
+      </c>
+      <c r="E3">
+        <v>-0.0003411130060664291</v>
+      </c>
+      <c r="F3">
+        <v>1.143437789020263</v>
+      </c>
+      <c r="G3">
+        <v>12.4</v>
+      </c>
+      <c r="H3">
+        <v>113.2</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>4.6</v>
+      </c>
+      <c r="K3">
+        <v>2.61</v>
+      </c>
+      <c r="L3">
+        <v>1.99</v>
+      </c>
+      <c r="M3">
+        <v>0.01852369218212827</v>
+      </c>
+      <c r="N3">
+        <v>1.971476307817871</v>
+      </c>
+      <c r="O3">
+        <v>0.3745804984853956</v>
+      </c>
+      <c r="P3">
+        <v>1.596895809332476</v>
+      </c>
+      <c r="Q3">
+        <v>4.206895809332476</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.0753538214043739</v>
+      </c>
+      <c r="T3">
+        <v>1.245030554009456</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.19</v>
+      </c>
+      <c r="W3">
+        <v>0.013122</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>107.4299864429814</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.07464523943312985</v>
+      </c>
+      <c r="C4">
+        <v>112.380309446717</v>
+      </c>
+      <c r="D4">
+        <v>102.2671850247576</v>
+      </c>
+      <c r="E4">
+        <v>1.143096676014197</v>
+      </c>
+      <c r="F4">
+        <v>2.286875578040527</v>
+      </c>
+      <c r="G4">
+        <v>12.4</v>
+      </c>
+      <c r="H4">
+        <v>113.2</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>4.6</v>
+      </c>
+      <c r="K4">
+        <v>2.61</v>
+      </c>
+      <c r="L4">
+        <v>1.99</v>
+      </c>
+      <c r="M4">
+        <v>0.03704738436425653</v>
+      </c>
+      <c r="N4">
+        <v>1.952952615635743</v>
+      </c>
+      <c r="O4">
+        <v>0.3710609969707913</v>
+      </c>
+      <c r="P4">
+        <v>1.581891618664952</v>
+      </c>
+      <c r="Q4">
+        <v>4.191891618664952</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.07590081574809168</v>
+      </c>
+      <c r="T4">
+        <v>1.255340701951235</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.19</v>
+      </c>
+      <c r="W4">
+        <v>0.013122</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>53.71499322149069</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.07455897567592955</v>
+      </c>
+      <c r="C5">
+        <v>111.3720553857152</v>
+      </c>
+      <c r="D5">
+        <v>102.4023687527759</v>
+      </c>
+      <c r="E5">
+        <v>2.28653446503446</v>
+      </c>
+      <c r="F5">
+        <v>3.43031336706079</v>
+      </c>
+      <c r="G5">
+        <v>12.4</v>
+      </c>
+      <c r="H5">
+        <v>113.2</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>4.6</v>
+      </c>
+      <c r="K5">
+        <v>2.61</v>
+      </c>
+      <c r="L5">
+        <v>1.99</v>
+      </c>
+      <c r="M5">
+        <v>0.05557107654638479</v>
+      </c>
+      <c r="N5">
+        <v>1.934428923453615</v>
+      </c>
+      <c r="O5">
+        <v>0.3675414954561869</v>
+      </c>
+      <c r="P5">
+        <v>1.566887427997428</v>
+      </c>
+      <c r="Q5">
+        <v>4.176887427997428</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.07645908832570056</v>
+      </c>
+      <c r="T5">
+        <v>1.265863430262949</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.19</v>
+      </c>
+      <c r="W5">
+        <v>0.013122</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>35.8099954809938</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.07447271191872923</v>
+      </c>
+      <c r="C6">
+        <v>110.3641591878725</v>
+      </c>
+      <c r="D6">
+        <v>102.5379103439536</v>
+      </c>
+      <c r="E6">
+        <v>3.429972254054724</v>
+      </c>
+      <c r="F6">
+        <v>4.573751156081054</v>
+      </c>
+      <c r="G6">
+        <v>12.4</v>
+      </c>
+      <c r="H6">
+        <v>113.2</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>4.6</v>
+      </c>
+      <c r="K6">
+        <v>2.61</v>
+      </c>
+      <c r="L6">
+        <v>1.99</v>
+      </c>
+      <c r="M6">
+        <v>0.07409476872851306</v>
+      </c>
+      <c r="N6">
+        <v>1.915905231271487</v>
+      </c>
+      <c r="O6">
+        <v>0.3640219939415825</v>
+      </c>
+      <c r="P6">
+        <v>1.551883237329904</v>
+      </c>
+      <c r="Q6">
+        <v>4.161883237329905</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.07702899158200961</v>
+      </c>
+      <c r="T6">
+        <v>1.276605382081156</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.19</v>
+      </c>
+      <c r="W6">
+        <v>0.013122</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>26.85749661074535</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.07438644816152892</v>
+      </c>
+      <c r="C7">
+        <v>109.3566222760946</v>
+      </c>
+      <c r="D7">
+        <v>102.6738112211959</v>
+      </c>
+      <c r="E7">
+        <v>4.573410043074986</v>
+      </c>
+      <c r="F7">
+        <v>5.717188945101316</v>
+      </c>
+      <c r="G7">
+        <v>12.4</v>
+      </c>
+      <c r="H7">
+        <v>113.2</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>4.6</v>
+      </c>
+      <c r="K7">
+        <v>2.61</v>
+      </c>
+      <c r="L7">
+        <v>1.99</v>
+      </c>
+      <c r="M7">
+        <v>0.09261846091064133</v>
+      </c>
+      <c r="N7">
+        <v>1.897381539089358</v>
+      </c>
+      <c r="O7">
+        <v>0.3605024924269781</v>
+      </c>
+      <c r="P7">
+        <v>1.53687904666238</v>
+      </c>
+      <c r="Q7">
+        <v>4.14687904666238</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.07761089280160939</v>
+      </c>
+      <c r="T7">
+        <v>1.287573480253431</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.19</v>
+      </c>
+      <c r="W7">
+        <v>0.013122</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>21.48599728859628</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.0743001844043286</v>
+      </c>
+      <c r="C8">
+        <v>108.3494460808403</v>
+      </c>
+      <c r="D8">
+        <v>102.8100728149619</v>
+      </c>
+      <c r="E8">
+        <v>5.716847832095249</v>
+      </c>
+      <c r="F8">
+        <v>6.860626734121579</v>
+      </c>
+      <c r="G8">
+        <v>12.4</v>
+      </c>
+      <c r="H8">
+        <v>113.2</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>4.6</v>
+      </c>
+      <c r="K8">
+        <v>2.61</v>
+      </c>
+      <c r="L8">
+        <v>1.99</v>
+      </c>
+      <c r="M8">
+        <v>0.1111421530927696</v>
+      </c>
+      <c r="N8">
+        <v>1.87885784690723</v>
+      </c>
+      <c r="O8">
+        <v>0.3569829909123737</v>
+      </c>
+      <c r="P8">
+        <v>1.521874855994856</v>
+      </c>
+      <c r="Q8">
+        <v>4.131874855994856</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.07820517489822193</v>
+      </c>
+      <c r="T8">
+        <v>1.298774942216605</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.19</v>
+      </c>
+      <c r="W8">
+        <v>0.013122</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>17.9049977404969</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.07421392064712831</v>
+      </c>
+      <c r="C9">
+        <v>107.3426320401723</v>
+      </c>
+      <c r="D9">
+        <v>102.9466965633142</v>
+      </c>
+      <c r="E9">
+        <v>6.860285621115514</v>
+      </c>
+      <c r="F9">
+        <v>8.004064523141844</v>
+      </c>
+      <c r="G9">
+        <v>12.4</v>
+      </c>
+      <c r="H9">
+        <v>113.2</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>4.6</v>
+      </c>
+      <c r="K9">
+        <v>2.61</v>
+      </c>
+      <c r="L9">
+        <v>1.99</v>
+      </c>
+      <c r="M9">
+        <v>0.1296658452748979</v>
+      </c>
+      <c r="N9">
+        <v>1.860334154725102</v>
+      </c>
+      <c r="O9">
+        <v>0.3534634893977694</v>
+      </c>
+      <c r="P9">
+        <v>1.506870665327332</v>
+      </c>
+      <c r="Q9">
+        <v>4.116870665327332</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.07881223725497669</v>
+      </c>
+      <c r="T9">
+        <v>1.310217295834902</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.19</v>
+      </c>
+      <c r="W9">
+        <v>0.013122</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>15.34714092042591</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.074231336889928</v>
+      </c>
+      <c r="C10">
+        <v>106.1715813180346</v>
+      </c>
+      <c r="D10">
+        <v>102.9190836301967</v>
+      </c>
+      <c r="E10">
+        <v>8.003723410135777</v>
+      </c>
+      <c r="F10">
+        <v>9.147502312162107</v>
+      </c>
+      <c r="G10">
+        <v>12.4</v>
+      </c>
+      <c r="H10">
+        <v>113.2</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>4.6</v>
+      </c>
+      <c r="K10">
+        <v>2.61</v>
+      </c>
+      <c r="L10">
+        <v>1.99</v>
+      </c>
+      <c r="M10">
+        <v>0.1628255411564855</v>
+      </c>
+      <c r="N10">
+        <v>1.827174458843514</v>
+      </c>
+      <c r="O10">
+        <v>0.3471631471802677</v>
+      </c>
+      <c r="P10">
+        <v>1.480011311663247</v>
+      </c>
+      <c r="Q10">
+        <v>4.090011311663247</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.07943249661948695</v>
+      </c>
+      <c r="T10">
+        <v>1.321908396270987</v>
+      </c>
+      <c r="U10">
+        <v>0.0178</v>
+      </c>
+      <c r="V10">
+        <v>0.19</v>
+      </c>
+      <c r="W10">
+        <v>0.014418</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>12.22166980601333</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.07415803313272767</v>
+      </c>
+      <c r="C11">
+        <v>105.1444645944754</v>
+      </c>
+      <c r="D11">
+        <v>103.0354046956577</v>
+      </c>
+      <c r="E11">
+        <v>9.14716119915604</v>
+      </c>
+      <c r="F11">
+        <v>10.29094010118237</v>
+      </c>
+      <c r="G11">
+        <v>12.4</v>
+      </c>
+      <c r="H11">
+        <v>113.2</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>4.6</v>
+      </c>
+      <c r="K11">
+        <v>2.61</v>
+      </c>
+      <c r="L11">
+        <v>1.99</v>
+      </c>
+      <c r="M11">
+        <v>0.1831787338010462</v>
+      </c>
+      <c r="N11">
+        <v>1.806821266198954</v>
+      </c>
+      <c r="O11">
+        <v>0.3432960405778012</v>
+      </c>
+      <c r="P11">
+        <v>1.463525225621152</v>
+      </c>
+      <c r="Q11">
+        <v>4.073525225621152</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.0800663880579425</v>
+      </c>
+      <c r="T11">
+        <v>1.333856443969404</v>
+      </c>
+      <c r="U11">
+        <v>0.0178</v>
+      </c>
+      <c r="V11">
+        <v>0.19</v>
+      </c>
+      <c r="W11">
+        <v>0.014418</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>10.86370649423407</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.07426292937552738</v>
+      </c>
+      <c r="C12">
+        <v>103.8346545846852</v>
+      </c>
+      <c r="D12">
+        <v>102.8690324748879</v>
+      </c>
+      <c r="E12">
+        <v>10.2905989881763</v>
+      </c>
+      <c r="F12">
+        <v>11.43437789020263</v>
+      </c>
+      <c r="G12">
+        <v>12.4</v>
+      </c>
+      <c r="H12">
+        <v>113.2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>4.6</v>
+      </c>
+      <c r="K12">
+        <v>2.61</v>
+      </c>
+      <c r="L12">
+        <v>1.99</v>
+      </c>
+      <c r="M12">
+        <v>0.2286875578040526</v>
+      </c>
+      <c r="N12">
+        <v>1.761312442195947</v>
+      </c>
+      <c r="O12">
+        <v>0.3346493640172299</v>
+      </c>
+      <c r="P12">
+        <v>1.426663078178717</v>
+      </c>
+      <c r="Q12">
+        <v>4.036663078178718</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.08071436597280821</v>
+      </c>
+      <c r="T12">
+        <v>1.346070003838898</v>
+      </c>
+      <c r="U12">
+        <v>0.02</v>
+      </c>
+      <c r="V12">
+        <v>0.19</v>
+      </c>
+      <c r="W12">
+        <v>0.0162</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>8.701828901881495</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.07430545561832708</v>
+      </c>
+      <c r="C13">
+        <v>102.623920390925</v>
+      </c>
+      <c r="D13">
+        <v>102.8017360701479</v>
+      </c>
+      <c r="E13">
+        <v>11.43403677719657</v>
+      </c>
+      <c r="F13">
+        <v>12.5778156792229</v>
+      </c>
+      <c r="G13">
+        <v>12.4</v>
+      </c>
+      <c r="H13">
+        <v>113.2</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>4.6</v>
+      </c>
+      <c r="K13">
+        <v>2.61</v>
+      </c>
+      <c r="L13">
+        <v>1.99</v>
+      </c>
+      <c r="M13">
+        <v>0.2653919108316031</v>
+      </c>
+      <c r="N13">
+        <v>1.724608089168397</v>
+      </c>
+      <c r="O13">
+        <v>0.3276755369419954</v>
+      </c>
+      <c r="P13">
+        <v>1.396932552226401</v>
+      </c>
+      <c r="Q13">
+        <v>4.006932552226401</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.08137690518913154</v>
+      </c>
+      <c r="T13">
+        <v>1.358558025727929</v>
+      </c>
+      <c r="U13">
+        <v>0.0211</v>
+      </c>
+      <c r="V13">
+        <v>0.19</v>
+      </c>
+      <c r="W13">
+        <v>0.017091</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>7.498344594469187</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.07425888186112675</v>
+      </c>
+      <c r="C14">
+        <v>101.5541886596189</v>
+      </c>
+      <c r="D14">
+        <v>102.8754421278621</v>
+      </c>
+      <c r="E14">
+        <v>12.57747456621683</v>
+      </c>
+      <c r="F14">
+        <v>13.72125346824316</v>
+      </c>
+      <c r="G14">
+        <v>12.4</v>
+      </c>
+      <c r="H14">
+        <v>113.2</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>4.6</v>
+      </c>
+      <c r="K14">
+        <v>2.61</v>
+      </c>
+      <c r="L14">
+        <v>1.99</v>
+      </c>
+      <c r="M14">
+        <v>0.2895184481799307</v>
+      </c>
+      <c r="N14">
+        <v>1.700481551820069</v>
+      </c>
+      <c r="O14">
+        <v>0.3230914948458131</v>
+      </c>
+      <c r="P14">
+        <v>1.377390056974256</v>
+      </c>
+      <c r="Q14">
+        <v>3.987390056974256</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.08205450211491677</v>
+      </c>
+      <c r="T14">
+        <v>1.371329866296258</v>
+      </c>
+      <c r="U14">
+        <v>0.0211</v>
+      </c>
+      <c r="V14">
+        <v>0.19</v>
+      </c>
+      <c r="W14">
+        <v>0.017091</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>6.873482544930089</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.07437025810392646</v>
+      </c>
+      <c r="C15">
+        <v>100.2346661192171</v>
+      </c>
+      <c r="D15">
+        <v>102.6993573764806</v>
+      </c>
+      <c r="E15">
+        <v>13.72091235523709</v>
+      </c>
+      <c r="F15">
+        <v>14.86469125726342</v>
+      </c>
+      <c r="G15">
+        <v>12.4</v>
+      </c>
+      <c r="H15">
+        <v>113.2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>4.6</v>
+      </c>
+      <c r="K15">
+        <v>2.61</v>
+      </c>
+      <c r="L15">
+        <v>1.99</v>
+      </c>
+      <c r="M15">
+        <v>0.3359420224141533</v>
+      </c>
+      <c r="N15">
+        <v>1.654057977585846</v>
+      </c>
+      <c r="O15">
+        <v>0.3142710157413108</v>
+      </c>
+      <c r="P15">
+        <v>1.339786961844535</v>
+      </c>
+      <c r="Q15">
+        <v>3.949786961844535</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.08274767598152467</v>
+      </c>
+      <c r="T15">
+        <v>1.384395312394893</v>
+      </c>
+      <c r="U15">
+        <v>0.0226</v>
+      </c>
+      <c r="V15">
+        <v>0.19</v>
+      </c>
+      <c r="W15">
+        <v>0.018306</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>5.923641185760036</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.07433583434672615</v>
+      </c>
+      <c r="C16">
+        <v>99.14558755812817</v>
+      </c>
+      <c r="D16">
+        <v>102.7537166044118</v>
+      </c>
+      <c r="E16">
+        <v>14.86435014425736</v>
+      </c>
+      <c r="F16">
+        <v>16.00812904628369</v>
+      </c>
+      <c r="G16">
+        <v>12.4</v>
+      </c>
+      <c r="H16">
+        <v>113.2</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>4.6</v>
+      </c>
+      <c r="K16">
+        <v>2.61</v>
+      </c>
+      <c r="L16">
+        <v>1.99</v>
+      </c>
+      <c r="M16">
+        <v>0.3617837164460113</v>
+      </c>
+      <c r="N16">
+        <v>1.628216283553988</v>
+      </c>
+      <c r="O16">
+        <v>0.3093610938752578</v>
+      </c>
+      <c r="P16">
+        <v>1.318855189678731</v>
+      </c>
+      <c r="Q16">
+        <v>3.92885518967873</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.08345697017061181</v>
+      </c>
+      <c r="T16">
+        <v>1.397764606077217</v>
+      </c>
+      <c r="U16">
+        <v>0.0226</v>
+      </c>
+      <c r="V16">
+        <v>0.19</v>
+      </c>
+      <c r="W16">
+        <v>0.018306</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>5.500523958205747</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.07430141058952584</v>
+      </c>
+      <c r="C17">
+        <v>98.05656657267785</v>
+      </c>
+      <c r="D17">
+        <v>102.8081334079818</v>
+      </c>
+      <c r="E17">
+        <v>16.00778793327762</v>
+      </c>
+      <c r="F17">
+        <v>17.15156683530395</v>
+      </c>
+      <c r="G17">
+        <v>12.4</v>
+      </c>
+      <c r="H17">
+        <v>113.2</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>4.6</v>
+      </c>
+      <c r="K17">
+        <v>2.61</v>
+      </c>
+      <c r="L17">
+        <v>1.99</v>
+      </c>
+      <c r="M17">
+        <v>0.3876254104778692</v>
+      </c>
+      <c r="N17">
+        <v>1.60237458952213</v>
+      </c>
+      <c r="O17">
+        <v>0.3044511720092048</v>
+      </c>
+      <c r="P17">
+        <v>1.297923417512926</v>
+      </c>
+      <c r="Q17">
+        <v>3.907923417512925</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.0841829536347363</v>
+      </c>
+      <c r="T17">
+        <v>1.411448471375595</v>
+      </c>
+      <c r="U17">
+        <v>0.0226</v>
+      </c>
+      <c r="V17">
+        <v>0.19</v>
+      </c>
+      <c r="W17">
+        <v>0.018306</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>5.13382236099203</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.07426698683232553</v>
+      </c>
+      <c r="C18">
+        <v>96.96760325438819</v>
+      </c>
+      <c r="D18">
+        <v>102.8626078787124</v>
+      </c>
+      <c r="E18">
+        <v>17.15122572229788</v>
+      </c>
+      <c r="F18">
+        <v>18.29500462432421</v>
+      </c>
+      <c r="G18">
+        <v>12.4</v>
+      </c>
+      <c r="H18">
+        <v>113.2</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>4.6</v>
+      </c>
+      <c r="K18">
+        <v>2.61</v>
+      </c>
+      <c r="L18">
+        <v>1.99</v>
+      </c>
+      <c r="M18">
+        <v>0.4134671045097272</v>
+      </c>
+      <c r="N18">
+        <v>1.576532895490272</v>
+      </c>
+      <c r="O18">
+        <v>0.2995412501431517</v>
+      </c>
+      <c r="P18">
+        <v>1.276991645347121</v>
+      </c>
+      <c r="Q18">
+        <v>3.886991645347121</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.08492622241943516</v>
+      </c>
+      <c r="T18">
+        <v>1.425458142990602</v>
+      </c>
+      <c r="U18">
+        <v>0.0226</v>
+      </c>
+      <c r="V18">
+        <v>0.19</v>
+      </c>
+      <c r="W18">
+        <v>0.018306</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>4.812958463430029</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.07423256307512524</v>
+      </c>
+      <c r="C19">
+        <v>95.87869769497527</v>
+      </c>
+      <c r="D19">
+        <v>102.9171401083197</v>
+      </c>
+      <c r="E19">
+        <v>18.29466351131815</v>
+      </c>
+      <c r="F19">
+        <v>19.43844241334448</v>
+      </c>
+      <c r="G19">
+        <v>12.4</v>
+      </c>
+      <c r="H19">
+        <v>113.2</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>4.6</v>
+      </c>
+      <c r="K19">
+        <v>2.61</v>
+      </c>
+      <c r="L19">
+        <v>1.99</v>
+      </c>
+      <c r="M19">
+        <v>0.4393087985415852</v>
+      </c>
+      <c r="N19">
+        <v>1.550691201458414</v>
+      </c>
+      <c r="O19">
+        <v>0.2946313282770988</v>
+      </c>
+      <c r="P19">
+        <v>1.256059873181316</v>
+      </c>
+      <c r="Q19">
+        <v>3.866059873181316</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.0856874012953316</v>
+      </c>
+      <c r="T19">
+        <v>1.439805397054163</v>
+      </c>
+      <c r="U19">
+        <v>0.0226</v>
+      </c>
+      <c r="V19">
+        <v>0.19</v>
+      </c>
+      <c r="W19">
+        <v>0.018306</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>4.52984325969885</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.08746948232037434</v>
+      </c>
+      <c r="C20">
+        <v>77.30766754986824</v>
+      </c>
+      <c r="D20">
+        <v>85.48954775223298</v>
+      </c>
+      <c r="E20">
+        <v>19.43810130033841</v>
+      </c>
+      <c r="F20">
+        <v>20.58188020236474</v>
+      </c>
+      <c r="G20">
+        <v>12.4</v>
+      </c>
+      <c r="H20">
+        <v>113.2</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>4.6</v>
+      </c>
+      <c r="K20">
+        <v>2.61</v>
+      </c>
+      <c r="L20">
+        <v>1.99</v>
+      </c>
+      <c r="M20">
+        <v>2.243424942057757</v>
+      </c>
+      <c r="N20">
+        <v>-0.253424942057757</v>
+      </c>
+      <c r="O20">
+        <v>-0.04815073899097383</v>
+      </c>
+      <c r="P20">
+        <v>-0.2052742030667832</v>
+      </c>
+      <c r="Q20">
+        <v>2.404725796933217</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.08677582597937719</v>
+      </c>
+      <c r="T20">
+        <v>1.46032081854778</v>
+      </c>
+      <c r="U20">
+        <v>0.109</v>
+      </c>
+      <c r="V20">
+        <v>0.1685369512087139</v>
+      </c>
+      <c r="W20">
+        <v>0.09062947231825018</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>0.8870365853090205</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.08846648232037432</v>
+      </c>
+      <c r="C21">
+        <v>75.08759888612943</v>
+      </c>
+      <c r="D21">
+        <v>84.41291687751442</v>
+      </c>
+      <c r="E21">
+        <v>20.58153908935867</v>
+      </c>
+      <c r="F21">
+        <v>21.725317991385</v>
+      </c>
+      <c r="G21">
+        <v>12.4</v>
+      </c>
+      <c r="H21">
+        <v>113.2</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>4.6</v>
+      </c>
+      <c r="K21">
+        <v>2.61</v>
+      </c>
+      <c r="L21">
+        <v>1.99</v>
+      </c>
+      <c r="M21">
+        <v>2.368059661060965</v>
+      </c>
+      <c r="N21">
+        <v>-0.3780596610609654</v>
+      </c>
+      <c r="O21">
+        <v>-0.07183133560158343</v>
+      </c>
+      <c r="P21">
+        <v>-0.306228325459382</v>
+      </c>
+      <c r="Q21">
+        <v>2.303771674540618</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.08773231765813493</v>
+      </c>
+      <c r="T21">
+        <v>1.478349470628617</v>
+      </c>
+      <c r="U21">
+        <v>0.109</v>
+      </c>
+      <c r="V21">
+        <v>0.1596665853556237</v>
+      </c>
+      <c r="W21">
+        <v>0.09159634219623701</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>0.8403504492401248</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.09614579898875211</v>
+      </c>
+      <c r="C22">
+        <v>66.47997138209668</v>
+      </c>
+      <c r="D22">
+        <v>76.94872716250194</v>
+      </c>
+      <c r="E22">
+        <v>21.72497687837894</v>
+      </c>
+      <c r="F22">
+        <v>22.86875578040527</v>
+      </c>
+      <c r="G22">
+        <v>12.4</v>
+      </c>
+      <c r="H22">
+        <v>113.2</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>4.6</v>
+      </c>
+      <c r="K22">
+        <v>2.61</v>
+      </c>
+      <c r="L22">
+        <v>1.99</v>
+      </c>
+      <c r="M22">
+        <v>3.206199560412818</v>
+      </c>
+      <c r="N22">
+        <v>-1.216199560412818</v>
+      </c>
+      <c r="O22">
+        <v>-0.2310779164784355</v>
+      </c>
+      <c r="P22">
+        <v>-0.9851216439343828</v>
+      </c>
+      <c r="Q22">
+        <v>1.624878356065617</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.08926561746433384</v>
+      </c>
+      <c r="T22">
+        <v>1.507250222569791</v>
+      </c>
+      <c r="U22">
+        <v>0.1402</v>
+      </c>
+      <c r="V22">
+        <v>0.1179277811239289</v>
+      </c>
+      <c r="W22">
+        <v>0.1236665250864251</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>0.6206725322312049</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.09745479898875209</v>
+      </c>
+      <c r="C23">
+        <v>64.19393120487783</v>
+      </c>
+      <c r="D23">
+        <v>75.80612477430336</v>
+      </c>
+      <c r="E23">
+        <v>22.8684146673992</v>
+      </c>
+      <c r="F23">
+        <v>24.01219356942553</v>
+      </c>
+      <c r="G23">
+        <v>12.4</v>
+      </c>
+      <c r="H23">
+        <v>113.2</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>4.6</v>
+      </c>
+      <c r="K23">
+        <v>2.61</v>
+      </c>
+      <c r="L23">
+        <v>1.99</v>
+      </c>
+      <c r="M23">
+        <v>3.366509538433459</v>
+      </c>
+      <c r="N23">
+        <v>-1.376509538433459</v>
+      </c>
+      <c r="O23">
+        <v>-0.2615368123023573</v>
+      </c>
+      <c r="P23">
+        <v>-1.114972726131102</v>
+      </c>
+      <c r="Q23">
+        <v>1.495027273868898</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.09027784047021147</v>
+      </c>
+      <c r="T23">
+        <v>1.52632933931118</v>
+      </c>
+      <c r="U23">
+        <v>0.1402</v>
+      </c>
+      <c r="V23">
+        <v>0.1123121724989799</v>
+      </c>
+      <c r="W23">
+        <v>0.124453833415643</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>0.5911166973630523</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.09876379898875211</v>
+      </c>
+      <c r="C24">
+        <v>61.94132726763667</v>
+      </c>
+      <c r="D24">
+        <v>74.69695862608245</v>
+      </c>
+      <c r="E24">
+        <v>24.01185245641946</v>
+      </c>
+      <c r="F24">
+        <v>25.15563135844579</v>
+      </c>
+      <c r="G24">
+        <v>12.4</v>
+      </c>
+      <c r="H24">
+        <v>113.2</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>4.6</v>
+      </c>
+      <c r="K24">
+        <v>2.61</v>
+      </c>
+      <c r="L24">
+        <v>1.99</v>
+      </c>
+      <c r="M24">
+        <v>3.5268195164541</v>
+      </c>
+      <c r="N24">
+        <v>-1.5368195164541</v>
+      </c>
+      <c r="O24">
+        <v>-0.291995708126279</v>
+      </c>
+      <c r="P24">
+        <v>-1.244823808327821</v>
+      </c>
+      <c r="Q24">
+        <v>1.365176191672179</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.09131601791213727</v>
+      </c>
+      <c r="T24">
+        <v>1.545897664174144</v>
+      </c>
+      <c r="U24">
+        <v>0.1402</v>
+      </c>
+      <c r="V24">
+        <v>0.1072070737490263</v>
+      </c>
+      <c r="W24">
+        <v>0.1251695682603865</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>0.5642477565738226</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.1000727989887521</v>
+      </c>
+      <c r="C25">
+        <v>59.72071305648515</v>
+      </c>
+      <c r="D25">
+        <v>73.6197822039512</v>
+      </c>
+      <c r="E25">
+        <v>25.15529024543973</v>
+      </c>
+      <c r="F25">
+        <v>26.29906914746606</v>
+      </c>
+      <c r="G25">
+        <v>12.4</v>
+      </c>
+      <c r="H25">
+        <v>113.2</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>4.6</v>
+      </c>
+      <c r="K25">
+        <v>2.61</v>
+      </c>
+      <c r="L25">
+        <v>1.99</v>
+      </c>
+      <c r="M25">
+        <v>3.687129494474741</v>
+      </c>
+      <c r="N25">
+        <v>-1.697129494474741</v>
+      </c>
+      <c r="O25">
+        <v>-0.3224546039502008</v>
+      </c>
+      <c r="P25">
+        <v>-1.37467489052454</v>
+      </c>
+      <c r="Q25">
+        <v>1.23532510947546</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.0923811610019053</v>
+      </c>
+      <c r="T25">
+        <v>1.565974257215367</v>
+      </c>
+      <c r="U25">
+        <v>0.1402</v>
+      </c>
+      <c r="V25">
+        <v>0.1025458966295034</v>
+      </c>
+      <c r="W25">
+        <v>0.1258230652925436</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>0.5397152454184391</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.1013817989887521</v>
+      </c>
+      <c r="C26">
+        <v>57.53072430991092</v>
+      </c>
+      <c r="D26">
+        <v>72.57323124639723</v>
+      </c>
+      <c r="E26">
+        <v>26.29872803445999</v>
+      </c>
+      <c r="F26">
+        <v>27.44250693648632</v>
+      </c>
+      <c r="G26">
+        <v>12.4</v>
+      </c>
+      <c r="H26">
+        <v>113.2</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>4.6</v>
+      </c>
+      <c r="K26">
+        <v>2.61</v>
+      </c>
+      <c r="L26">
+        <v>1.99</v>
+      </c>
+      <c r="M26">
+        <v>3.847439472495382</v>
+      </c>
+      <c r="N26">
+        <v>-1.857439472495382</v>
+      </c>
+      <c r="O26">
+        <v>-0.3529134997741226</v>
+      </c>
+      <c r="P26">
+        <v>-1.504525972721259</v>
+      </c>
+      <c r="Q26">
+        <v>1.105474027278741</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.09347433417298298</v>
+      </c>
+      <c r="T26">
+        <v>1.586579181652411</v>
+      </c>
+      <c r="U26">
+        <v>0.1402</v>
+      </c>
+      <c r="V26">
+        <v>0.09827315093660745</v>
+      </c>
+      <c r="W26">
+        <v>0.1264221042386876</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>0.5172271101926708</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.1139317182835739</v>
+      </c>
+      <c r="C27">
+        <v>47.68258196239057</v>
+      </c>
+      <c r="D27">
+        <v>63.86852668789714</v>
+      </c>
+      <c r="E27">
+        <v>27.44216582348025</v>
+      </c>
+      <c r="F27">
+        <v>28.58594472550658</v>
+      </c>
+      <c r="G27">
+        <v>12.4</v>
+      </c>
+      <c r="H27">
+        <v>113.2</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>4.6</v>
+      </c>
+      <c r="K27">
+        <v>2.61</v>
+      </c>
+      <c r="L27">
+        <v>1.99</v>
+      </c>
+      <c r="M27">
+        <v>5.251238046075559</v>
+      </c>
+      <c r="N27">
+        <v>-3.261238046075559</v>
+      </c>
+      <c r="O27">
+        <v>-0.6196352287543563</v>
+      </c>
+      <c r="P27">
+        <v>-2.641602817321203</v>
+      </c>
+      <c r="Q27">
+        <v>-0.03160281732120351</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.09508455102171845</v>
+      </c>
+      <c r="T27">
+        <v>1.616929722054661</v>
+      </c>
+      <c r="U27">
+        <v>0.1837</v>
+      </c>
+      <c r="V27">
+        <v>0.0720020682137173</v>
+      </c>
+      <c r="W27">
+        <v>0.1704732200691401</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>0.3789582537564068</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.1156757182835738</v>
+      </c>
+      <c r="C28">
+        <v>45.49203763119158</v>
+      </c>
+      <c r="D28">
+        <v>62.82142014571842</v>
+      </c>
+      <c r="E28">
+        <v>28.58560361250052</v>
+      </c>
+      <c r="F28">
+        <v>29.72938251452685</v>
+      </c>
+      <c r="G28">
+        <v>12.4</v>
+      </c>
+      <c r="H28">
+        <v>113.2</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>4.6</v>
+      </c>
+      <c r="K28">
+        <v>2.61</v>
+      </c>
+      <c r="L28">
+        <v>1.99</v>
+      </c>
+      <c r="M28">
+        <v>5.461287567918582</v>
+      </c>
+      <c r="N28">
+        <v>-3.471287567918582</v>
+      </c>
+      <c r="O28">
+        <v>-0.6595446379045307</v>
+      </c>
+      <c r="P28">
+        <v>-2.811742930014051</v>
+      </c>
+      <c r="Q28">
+        <v>-0.2017429300140514</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.09624380171120112</v>
+      </c>
+      <c r="T28">
+        <v>1.638780123704049</v>
+      </c>
+      <c r="U28">
+        <v>0.1837</v>
+      </c>
+      <c r="V28">
+        <v>0.06923275789780509</v>
+      </c>
+      <c r="W28">
+        <v>0.1709819423741732</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>0.3643829363042373</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.1174197182835739</v>
+      </c>
+      <c r="C29">
+        <v>43.33527351767255</v>
+      </c>
+      <c r="D29">
+        <v>61.80809382121966</v>
+      </c>
+      <c r="E29">
+        <v>29.72904140152078</v>
+      </c>
+      <c r="F29">
+        <v>30.87282030354711</v>
+      </c>
+      <c r="G29">
+        <v>12.4</v>
+      </c>
+      <c r="H29">
+        <v>113.2</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>4.6</v>
+      </c>
+      <c r="K29">
+        <v>2.61</v>
+      </c>
+      <c r="L29">
+        <v>1.99</v>
+      </c>
+      <c r="M29">
+        <v>5.671337089761605</v>
+      </c>
+      <c r="N29">
+        <v>-3.681337089761605</v>
+      </c>
+      <c r="O29">
+        <v>-0.6994540470547049</v>
+      </c>
+      <c r="P29">
+        <v>-2.9818830427069</v>
+      </c>
+      <c r="Q29">
+        <v>-0.3718830427069002</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.09743481269354635</v>
+      </c>
+      <c r="T29">
+        <v>1.661229166494515</v>
+      </c>
+      <c r="U29">
+        <v>0.1837</v>
+      </c>
+      <c r="V29">
+        <v>0.06666858167936786</v>
+      </c>
+      <c r="W29">
+        <v>0.1714529815455001</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.3508872719966729</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.1191637182835739</v>
+      </c>
+      <c r="C30">
+        <v>41.21068091878161</v>
+      </c>
+      <c r="D30">
+        <v>60.82693901134898</v>
+      </c>
+      <c r="E30">
+        <v>30.87247919054105</v>
+      </c>
+      <c r="F30">
+        <v>32.01625809256738</v>
+      </c>
+      <c r="G30">
+        <v>12.4</v>
+      </c>
+      <c r="H30">
+        <v>113.2</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>4.6</v>
+      </c>
+      <c r="K30">
+        <v>2.61</v>
+      </c>
+      <c r="L30">
+        <v>1.99</v>
+      </c>
+      <c r="M30">
+        <v>5.881386611604627</v>
+      </c>
+      <c r="N30">
+        <v>-3.891386611604628</v>
+      </c>
+      <c r="O30">
+        <v>-0.7393634562048793</v>
+      </c>
+      <c r="P30">
+        <v>-3.152023155399748</v>
+      </c>
+      <c r="Q30">
+        <v>-0.5420231553997485</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.09865890731429004</v>
+      </c>
+      <c r="T30">
+        <v>1.684301793806939</v>
+      </c>
+      <c r="U30">
+        <v>0.1837</v>
+      </c>
+      <c r="V30">
+        <v>0.06428756090510472</v>
+      </c>
+      <c r="W30">
+        <v>0.1718903750617323</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.3383555837110774</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.1209077182835739</v>
+      </c>
+      <c r="C31">
+        <v>39.11675168286825</v>
+      </c>
+      <c r="D31">
+        <v>59.87644756445587</v>
+      </c>
+      <c r="E31">
+        <v>32.0159169795613</v>
+      </c>
+      <c r="F31">
+        <v>33.15969588158763</v>
+      </c>
+      <c r="G31">
+        <v>12.4</v>
+      </c>
+      <c r="H31">
+        <v>113.2</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>4.6</v>
+      </c>
+      <c r="K31">
+        <v>2.61</v>
+      </c>
+      <c r="L31">
+        <v>1.99</v>
+      </c>
+      <c r="M31">
+        <v>6.091436133447647</v>
+      </c>
+      <c r="N31">
+        <v>-4.101436133447647</v>
+      </c>
+      <c r="O31">
+        <v>-0.779272865355053</v>
+      </c>
+      <c r="P31">
+        <v>-3.322163268092594</v>
+      </c>
+      <c r="Q31">
+        <v>-0.7121632680925942</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.09991748347364623</v>
+      </c>
+      <c r="T31">
+        <v>1.708024354283093</v>
+      </c>
+      <c r="U31">
+        <v>0.1837</v>
+      </c>
+      <c r="V31">
+        <v>0.06207074846010113</v>
+      </c>
+      <c r="W31">
+        <v>0.1722976035078794</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.326688149790006</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.1226517182835739</v>
+      </c>
+      <c r="C32">
+        <v>37.05207047439516</v>
+      </c>
+      <c r="D32">
+        <v>58.95520414500306</v>
+      </c>
+      <c r="E32">
+        <v>33.15935476858157</v>
+      </c>
+      <c r="F32">
+        <v>34.3031336706079</v>
+      </c>
+      <c r="G32">
+        <v>12.4</v>
+      </c>
+      <c r="H32">
+        <v>113.2</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>4.6</v>
+      </c>
+      <c r="K32">
+        <v>2.61</v>
+      </c>
+      <c r="L32">
+        <v>1.99</v>
+      </c>
+      <c r="M32">
+        <v>6.301485655290671</v>
+      </c>
+      <c r="N32">
+        <v>-4.311485655290671</v>
+      </c>
+      <c r="O32">
+        <v>-0.8191822745052275</v>
+      </c>
+      <c r="P32">
+        <v>-3.492303380785443</v>
+      </c>
+      <c r="Q32">
+        <v>-0.8823033807854435</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.1012120189518412</v>
+      </c>
+      <c r="T32">
+        <v>1.732424702201423</v>
+      </c>
+      <c r="U32">
+        <v>0.1837</v>
+      </c>
+      <c r="V32">
+        <v>0.06000172351143108</v>
+      </c>
+      <c r="W32">
+        <v>0.1726776833909501</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.3157985447970058</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1243957182835739</v>
+      </c>
+      <c r="C33">
+        <v>35.01530774190861</v>
+      </c>
+      <c r="D33">
+        <v>58.06187920153677</v>
+      </c>
+      <c r="E33">
+        <v>34.30279255760183</v>
+      </c>
+      <c r="F33">
+        <v>35.44657145962816</v>
+      </c>
+      <c r="G33">
+        <v>12.4</v>
+      </c>
+      <c r="H33">
+        <v>113.2</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>4.6</v>
+      </c>
+      <c r="K33">
+        <v>2.61</v>
+      </c>
+      <c r="L33">
+        <v>1.99</v>
+      </c>
+      <c r="M33">
+        <v>6.511535177133693</v>
+      </c>
+      <c r="N33">
+        <v>-4.521535177133693</v>
+      </c>
+      <c r="O33">
+        <v>-0.8590916836554017</v>
+      </c>
+      <c r="P33">
+        <v>-3.662443493478291</v>
+      </c>
+      <c r="Q33">
+        <v>-1.052443493478291</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.10254407719752</v>
+      </c>
+      <c r="T33">
+        <v>1.757532306581154</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>0.05806618404332041</v>
+      </c>
+      <c r="W33">
+        <v>0.173033241991242</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.3056114949648443</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1261397182835738</v>
+      </c>
+      <c r="C34">
+        <v>33.00521331578727</v>
+      </c>
+      <c r="D34">
+        <v>57.1952225644357</v>
+      </c>
+      <c r="E34">
+        <v>35.4462303466221</v>
+      </c>
+      <c r="F34">
+        <v>36.59000924864843</v>
+      </c>
+      <c r="G34">
+        <v>12.4</v>
+      </c>
+      <c r="H34">
+        <v>113.2</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>4.6</v>
+      </c>
+      <c r="K34">
+        <v>2.61</v>
+      </c>
+      <c r="L34">
+        <v>1.99</v>
+      </c>
+      <c r="M34">
+        <v>6.721584698976717</v>
+      </c>
+      <c r="N34">
+        <v>-4.731584698976716</v>
+      </c>
+      <c r="O34">
+        <v>-0.8990010928055761</v>
+      </c>
+      <c r="P34">
+        <v>-3.83258360617114</v>
+      </c>
+      <c r="Q34">
+        <v>-1.222583606171141</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.1039153136268953</v>
+      </c>
+      <c r="T34">
+        <v>1.78337836991323</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>0.05625161579196663</v>
+      </c>
+      <c r="W34">
+        <v>0.1733665781790157</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.2960611357471928</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1278837182835739</v>
+      </c>
+      <c r="C35">
+        <v>31.02061057093517</v>
+      </c>
+      <c r="D35">
+        <v>56.35405760860386</v>
+      </c>
+      <c r="E35">
+        <v>36.58966813564236</v>
+      </c>
+      <c r="F35">
+        <v>37.73344703766869</v>
+      </c>
+      <c r="G35">
+        <v>12.4</v>
+      </c>
+      <c r="H35">
+        <v>113.2</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>4.6</v>
+      </c>
+      <c r="K35">
+        <v>2.61</v>
+      </c>
+      <c r="L35">
+        <v>1.99</v>
+      </c>
+      <c r="M35">
+        <v>6.931634220819738</v>
+      </c>
+      <c r="N35">
+        <v>-4.941634220819738</v>
+      </c>
+      <c r="O35">
+        <v>-0.9389105019557502</v>
+      </c>
+      <c r="P35">
+        <v>-4.002723718863988</v>
+      </c>
+      <c r="Q35">
+        <v>-1.392723718863988</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.1053274824869983</v>
+      </c>
+      <c r="T35">
+        <v>1.809995957523875</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>0.05454702137402825</v>
+      </c>
+      <c r="W35">
+        <v>0.173679712173591</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.2870895861790962</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1296277182835739</v>
+      </c>
+      <c r="C36">
+        <v>29.06039109710154</v>
+      </c>
+      <c r="D36">
+        <v>55.5372759237905</v>
+      </c>
+      <c r="E36">
+        <v>37.73310592466263</v>
+      </c>
+      <c r="F36">
+        <v>38.87688482668896</v>
+      </c>
+      <c r="G36">
+        <v>12.4</v>
+      </c>
+      <c r="H36">
+        <v>113.2</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>4.6</v>
+      </c>
+      <c r="K36">
+        <v>2.61</v>
+      </c>
+      <c r="L36">
+        <v>1.99</v>
+      </c>
+      <c r="M36">
+        <v>7.141683742662762</v>
+      </c>
+      <c r="N36">
+        <v>-5.151683742662762</v>
+      </c>
+      <c r="O36">
+        <v>-0.9788199111059247</v>
+      </c>
+      <c r="P36">
+        <v>-4.172863831556837</v>
+      </c>
+      <c r="Q36">
+        <v>-1.562863831556837</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.1067824443428619</v>
+      </c>
+      <c r="T36">
+        <v>1.837420138698479</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>0.05294269721596859</v>
+      </c>
+      <c r="W36">
+        <v>0.1739744265214266</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.2786457748208874</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1313717182835739</v>
+      </c>
+      <c r="C37">
+        <v>27.12350982606122</v>
+      </c>
+      <c r="D37">
+        <v>54.74383244177044</v>
+      </c>
+      <c r="E37">
+        <v>38.87654371368289</v>
+      </c>
+      <c r="F37">
+        <v>40.02032261570922</v>
+      </c>
+      <c r="G37">
+        <v>12.4</v>
+      </c>
+      <c r="H37">
+        <v>113.2</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>4.6</v>
+      </c>
+      <c r="K37">
+        <v>2.61</v>
+      </c>
+      <c r="L37">
+        <v>1.99</v>
+      </c>
+      <c r="M37">
+        <v>7.351733264505784</v>
+      </c>
+      <c r="N37">
+        <v>-5.361733264505784</v>
+      </c>
+      <c r="O37">
+        <v>-1.018729320256099</v>
+      </c>
+      <c r="P37">
+        <v>-4.343003944249684</v>
+      </c>
+      <c r="Q37">
+        <v>-1.733003944249684</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.108282174255829</v>
+      </c>
+      <c r="T37">
+        <v>1.865688140832302</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>0.05143004872408378</v>
+      </c>
+      <c r="W37">
+        <v>0.1742523000493858</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.2706844669688621</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1331157182835739</v>
+      </c>
+      <c r="C38">
+        <v>25.20898057061029</v>
+      </c>
+      <c r="D38">
+        <v>53.97274097533977</v>
+      </c>
+      <c r="E38">
+        <v>40.01998150270315</v>
+      </c>
+      <c r="F38">
+        <v>41.16376040472948</v>
+      </c>
+      <c r="G38">
+        <v>12.4</v>
+      </c>
+      <c r="H38">
+        <v>113.2</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>4.6</v>
+      </c>
+      <c r="K38">
+        <v>2.61</v>
+      </c>
+      <c r="L38">
+        <v>1.99</v>
+      </c>
+      <c r="M38">
+        <v>7.561782786348806</v>
+      </c>
+      <c r="N38">
+        <v>-5.571782786348805</v>
+      </c>
+      <c r="O38">
+        <v>-1.058638729406273</v>
+      </c>
+      <c r="P38">
+        <v>-4.513144056942532</v>
+      </c>
+      <c r="Q38">
+        <v>-1.903144056942532</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.1098287707285763</v>
+      </c>
+      <c r="T38">
+        <v>1.894839518032807</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>0.0500014362595259</v>
+      </c>
+      <c r="W38">
+        <v>0.1745147361591251</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.2631654539975048</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1348597182835739</v>
+      </c>
+      <c r="C39">
+        <v>23.31587193533657</v>
+      </c>
+      <c r="D39">
+        <v>53.22307012908631</v>
+      </c>
+      <c r="E39">
+        <v>41.16341929172341</v>
+      </c>
+      <c r="F39">
+        <v>42.30719819374974</v>
+      </c>
+      <c r="G39">
+        <v>12.4</v>
+      </c>
+      <c r="H39">
+        <v>113.2</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>4.6</v>
+      </c>
+      <c r="K39">
+        <v>2.61</v>
+      </c>
+      <c r="L39">
+        <v>1.99</v>
+      </c>
+      <c r="M39">
+        <v>7.771832308191827</v>
+      </c>
+      <c r="N39">
+        <v>-5.781832308191827</v>
+      </c>
+      <c r="O39">
+        <v>-1.098548138556447</v>
+      </c>
+      <c r="P39">
+        <v>-4.68328416963538</v>
+      </c>
+      <c r="Q39">
+        <v>-2.07328416963538</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.1114244655020458</v>
+      </c>
+      <c r="T39">
+        <v>1.924916335779359</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>0.04865004609034954</v>
+      </c>
+      <c r="W39">
+        <v>0.1747629865332028</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.2560528741597344</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1366037182835739</v>
+      </c>
+      <c r="C40">
+        <v>21.44330356351303</v>
+      </c>
+      <c r="D40">
+        <v>52.49393954628303</v>
+      </c>
+      <c r="E40">
+        <v>42.30685708074368</v>
+      </c>
+      <c r="F40">
+        <v>43.45063598277</v>
+      </c>
+      <c r="G40">
+        <v>12.4</v>
+      </c>
+      <c r="H40">
+        <v>113.2</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>4.6</v>
+      </c>
+      <c r="K40">
+        <v>2.61</v>
+      </c>
+      <c r="L40">
+        <v>1.99</v>
+      </c>
+      <c r="M40">
+        <v>7.981881830034849</v>
+      </c>
+      <c r="N40">
+        <v>-5.991881830034849</v>
+      </c>
+      <c r="O40">
+        <v>-1.138457547706621</v>
+      </c>
+      <c r="P40">
+        <v>-4.853424282328228</v>
+      </c>
+      <c r="Q40">
+        <v>-2.243424282328228</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.1130716343004659</v>
+      </c>
+      <c r="T40">
+        <v>1.955963373453219</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>0.04736978171955086</v>
+      </c>
+      <c r="W40">
+        <v>0.1749981710981185</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.249314640629215</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1383477182835739</v>
+      </c>
+      <c r="C41">
+        <v>19.59044268831665</v>
+      </c>
+      <c r="D41">
+        <v>51.78451646010692</v>
+      </c>
+      <c r="E41">
+        <v>43.45029486976394</v>
+      </c>
+      <c r="F41">
+        <v>44.59407377179027</v>
+      </c>
+      <c r="G41">
+        <v>12.4</v>
+      </c>
+      <c r="H41">
+        <v>113.2</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>4.6</v>
+      </c>
+      <c r="K41">
+        <v>2.61</v>
+      </c>
+      <c r="L41">
+        <v>1.99</v>
+      </c>
+      <c r="M41">
+        <v>8.191931351877873</v>
+      </c>
+      <c r="N41">
+        <v>-6.201931351877873</v>
+      </c>
+      <c r="O41">
+        <v>-1.178366956856796</v>
+      </c>
+      <c r="P41">
+        <v>-5.023564395021077</v>
+      </c>
+      <c r="Q41">
+        <v>-2.413564395021077</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1147728086332604</v>
+      </c>
+      <c r="T41">
+        <v>1.988028346788518</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>0.04615517193187006</v>
+      </c>
+      <c r="W41">
+        <v>0.1752212949161155</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.2429219575361583</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1400917182835739</v>
+      </c>
+      <c r="C42">
+        <v>17.75650095996733</v>
+      </c>
+      <c r="D42">
+        <v>51.09401252077787</v>
+      </c>
+      <c r="E42">
+        <v>44.59373265878421</v>
+      </c>
+      <c r="F42">
+        <v>45.73751156081053</v>
+      </c>
+      <c r="G42">
+        <v>12.4</v>
+      </c>
+      <c r="H42">
+        <v>113.2</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>4.6</v>
+      </c>
+      <c r="K42">
+        <v>2.61</v>
+      </c>
+      <c r="L42">
+        <v>1.99</v>
+      </c>
+      <c r="M42">
+        <v>8.401980873720895</v>
+      </c>
+      <c r="N42">
+        <v>-6.411980873720895</v>
+      </c>
+      <c r="O42">
+        <v>-1.21827636600697</v>
+      </c>
+      <c r="P42">
+        <v>-5.193704507713925</v>
+      </c>
+      <c r="Q42">
+        <v>-2.583704507713925</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.116530688777148</v>
+      </c>
+      <c r="T42">
+        <v>2.021162152568327</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>0.04500129263357331</v>
+      </c>
+      <c r="W42">
+        <v>0.1754332625432126</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.2368489085977543</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1418357182835739</v>
+      </c>
+      <c r="C43">
+        <v>15.94073152337126</v>
+      </c>
+      <c r="D43">
+        <v>50.42168087320206</v>
+      </c>
+      <c r="E43">
+        <v>45.73717044780447</v>
+      </c>
+      <c r="F43">
+        <v>46.8809493498308</v>
+      </c>
+      <c r="G43">
+        <v>12.4</v>
+      </c>
+      <c r="H43">
+        <v>113.2</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>4.6</v>
+      </c>
+      <c r="K43">
+        <v>2.61</v>
+      </c>
+      <c r="L43">
+        <v>1.99</v>
+      </c>
+      <c r="M43">
+        <v>8.612030395563918</v>
+      </c>
+      <c r="N43">
+        <v>-6.622030395563918</v>
+      </c>
+      <c r="O43">
+        <v>-1.258185775157144</v>
+      </c>
+      <c r="P43">
+        <v>-5.363844620406773</v>
+      </c>
+      <c r="Q43">
+        <v>-2.753844620406773</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1183481580784557</v>
+      </c>
+      <c r="T43">
+        <v>2.055419138205078</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>0.04390370013031542</v>
+      </c>
+      <c r="W43">
+        <v>0.1756348902860611</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.2310721059490286</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1435797182835739</v>
+      </c>
+      <c r="C44">
+        <v>14.14242632349481</v>
+      </c>
+      <c r="D44">
+        <v>49.76681346234587</v>
+      </c>
+      <c r="E44">
+        <v>46.88060823682473</v>
+      </c>
+      <c r="F44">
+        <v>48.02438713885105</v>
+      </c>
+      <c r="G44">
+        <v>12.4</v>
+      </c>
+      <c r="H44">
+        <v>113.2</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>4.6</v>
+      </c>
+      <c r="K44">
+        <v>2.61</v>
+      </c>
+      <c r="L44">
+        <v>1.99</v>
+      </c>
+      <c r="M44">
+        <v>8.822079917406938</v>
+      </c>
+      <c r="N44">
+        <v>-6.832079917406938</v>
+      </c>
+      <c r="O44">
+        <v>-1.298095184307318</v>
+      </c>
+      <c r="P44">
+        <v>-5.53398473309962</v>
+      </c>
+      <c r="Q44">
+        <v>-2.92398473309962</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1202282987349807</v>
+      </c>
+      <c r="T44">
+        <v>2.090857399208613</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0.04285837393673649</v>
+      </c>
+      <c r="W44">
+        <v>0.1758269167078215</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.2255703891407185</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1453237182835739</v>
+      </c>
+      <c r="C45">
+        <v>12.36091361802951</v>
+      </c>
+      <c r="D45">
+        <v>49.12873854590084</v>
+      </c>
+      <c r="E45">
+        <v>48.024046025845</v>
+      </c>
+      <c r="F45">
+        <v>49.16782492787132</v>
+      </c>
+      <c r="G45">
+        <v>12.4</v>
+      </c>
+      <c r="H45">
+        <v>113.2</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>4.6</v>
+      </c>
+      <c r="K45">
+        <v>2.61</v>
+      </c>
+      <c r="L45">
+        <v>1.99</v>
+      </c>
+      <c r="M45">
+        <v>9.032129439249962</v>
+      </c>
+      <c r="N45">
+        <v>-7.042129439249962</v>
+      </c>
+      <c r="O45">
+        <v>-1.338004593457493</v>
+      </c>
+      <c r="P45">
+        <v>-5.704124845792469</v>
+      </c>
+      <c r="Q45">
+        <v>-3.094124845792469</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1221744092391032</v>
+      </c>
+      <c r="T45">
+        <v>2.12753910796666</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0.04186166756611471</v>
+      </c>
+      <c r="W45">
+        <v>0.1760100116681047</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.2203245661374459</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1470677182835738</v>
+      </c>
+      <c r="C46">
+        <v>10.59555567898043</v>
+      </c>
+      <c r="D46">
+        <v>48.50681839587202</v>
+      </c>
+      <c r="E46">
+        <v>49.16748381486526</v>
+      </c>
+      <c r="F46">
+        <v>50.31126271689158</v>
+      </c>
+      <c r="G46">
+        <v>12.4</v>
+      </c>
+      <c r="H46">
+        <v>113.2</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>4.6</v>
+      </c>
+      <c r="K46">
+        <v>2.61</v>
+      </c>
+      <c r="L46">
+        <v>1.99</v>
+      </c>
+      <c r="M46">
+        <v>9.242178961092984</v>
+      </c>
+      <c r="N46">
+        <v>-7.252178961092984</v>
+      </c>
+      <c r="O46">
+        <v>-1.377914002607667</v>
+      </c>
+      <c r="P46">
+        <v>-5.874264958485317</v>
+      </c>
+      <c r="Q46">
+        <v>-3.264264958485317</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1241900236898015</v>
+      </c>
+      <c r="T46">
+        <v>2.165530877751778</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0.04091026603052119</v>
+      </c>
+      <c r="W46">
+        <v>0.1761847841301933</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.2153171896343221</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1488117182835739</v>
+      </c>
+      <c r="C47">
+        <v>8.84574666664507</v>
+      </c>
+      <c r="D47">
+        <v>47.90044717255692</v>
+      </c>
+      <c r="E47">
+        <v>50.31092160388553</v>
+      </c>
+      <c r="F47">
+        <v>51.45470050591185</v>
+      </c>
+      <c r="G47">
+        <v>12.4</v>
+      </c>
+      <c r="H47">
+        <v>113.2</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>4.6</v>
+      </c>
+      <c r="K47">
+        <v>2.61</v>
+      </c>
+      <c r="L47">
+        <v>1.99</v>
+      </c>
+      <c r="M47">
+        <v>9.452228482936007</v>
+      </c>
+      <c r="N47">
+        <v>-7.462228482936007</v>
+      </c>
+      <c r="O47">
+        <v>-1.417823411757841</v>
+      </c>
+      <c r="P47">
+        <v>-6.044405071178166</v>
+      </c>
+      <c r="Q47">
+        <v>-3.434405071178166</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1262789332114342</v>
+      </c>
+      <c r="T47">
+        <v>2.204904166438174</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0.04000114900762072</v>
+      </c>
+      <c r="W47">
+        <v>0.1763517889273001</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.2105323631980038</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1505557182835739</v>
+      </c>
+      <c r="C48">
+        <v>7.1109106610851</v>
+      </c>
+      <c r="D48">
+        <v>47.30904895601721</v>
+      </c>
+      <c r="E48">
+        <v>51.45435939290579</v>
+      </c>
+      <c r="F48">
+        <v>52.59813829493211</v>
+      </c>
+      <c r="G48">
+        <v>12.4</v>
+      </c>
+      <c r="H48">
+        <v>113.2</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>4.6</v>
+      </c>
+      <c r="K48">
+        <v>2.61</v>
+      </c>
+      <c r="L48">
+        <v>1.99</v>
+      </c>
+      <c r="M48">
+        <v>9.662278004779029</v>
+      </c>
+      <c r="N48">
+        <v>-7.672278004779029</v>
+      </c>
+      <c r="O48">
+        <v>-1.457732820908016</v>
+      </c>
+      <c r="P48">
+        <v>-6.214545183871014</v>
+      </c>
+      <c r="Q48">
+        <v>-3.604545183871014</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1284452097523867</v>
+      </c>
+      <c r="T48">
+        <v>2.245735725075919</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0.03913155881180288</v>
+      </c>
+      <c r="W48">
+        <v>0.1765115326462718</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.2059555726936994</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1522997182835739</v>
+      </c>
+      <c r="C49">
+        <v>5.39049983764474</v>
+      </c>
+      <c r="D49">
+        <v>46.73207592159712</v>
+      </c>
+      <c r="E49">
+        <v>52.59779718192605</v>
+      </c>
+      <c r="F49">
+        <v>53.74157608395238</v>
+      </c>
+      <c r="G49">
+        <v>12.4</v>
+      </c>
+      <c r="H49">
+        <v>113.2</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>4.6</v>
+      </c>
+      <c r="K49">
+        <v>2.61</v>
+      </c>
+      <c r="L49">
+        <v>1.99</v>
+      </c>
+      <c r="M49">
+        <v>9.872327526622053</v>
+      </c>
+      <c r="N49">
+        <v>-7.882327526622053</v>
+      </c>
+      <c r="O49">
+        <v>-1.49764223005819</v>
+      </c>
+      <c r="P49">
+        <v>-6.384685296563863</v>
+      </c>
+      <c r="Q49">
+        <v>-3.774685296563863</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1306932325779034</v>
+      </c>
+      <c r="T49">
+        <v>2.288108097247162</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0.03829897245410494</v>
+      </c>
+      <c r="W49">
+        <v>0.1766644787601809</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.2015735392321313</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1540437182835739</v>
+      </c>
+      <c r="C50">
+        <v>3.683992774366978</v>
+      </c>
+      <c r="D50">
+        <v>46.16900664733961</v>
+      </c>
+      <c r="E50">
+        <v>53.74123497094631</v>
+      </c>
+      <c r="F50">
+        <v>54.88501387297264</v>
+      </c>
+      <c r="G50">
+        <v>12.4</v>
+      </c>
+      <c r="H50">
+        <v>113.2</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>4.6</v>
+      </c>
+      <c r="K50">
+        <v>2.61</v>
+      </c>
+      <c r="L50">
+        <v>1.99</v>
+      </c>
+      <c r="M50">
+        <v>10.08237704846507</v>
+      </c>
+      <c r="N50">
+        <v>-8.092377048465073</v>
+      </c>
+      <c r="O50">
+        <v>-1.537551639208364</v>
+      </c>
+      <c r="P50">
+        <v>-6.554825409256709</v>
+      </c>
+      <c r="Q50">
+        <v>-3.944825409256709</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1330277178197862</v>
+      </c>
+      <c r="T50">
+        <v>2.332110176040377</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0.03750107719464443</v>
+      </c>
+      <c r="W50">
+        <v>0.1768110521193438</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.1973740904981286</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1557877182835739</v>
+      </c>
+      <c r="C51">
+        <v>1.990892880315549</v>
+      </c>
+      <c r="D51">
+        <v>45.61934454230845</v>
+      </c>
+      <c r="E51">
+        <v>54.88467275996658</v>
+      </c>
+      <c r="F51">
+        <v>56.0284516619929</v>
+      </c>
+      <c r="G51">
+        <v>12.4</v>
+      </c>
+      <c r="H51">
+        <v>113.2</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>4.6</v>
+      </c>
+      <c r="K51">
+        <v>2.61</v>
+      </c>
+      <c r="L51">
+        <v>1.99</v>
+      </c>
+      <c r="M51">
+        <v>10.2924265703081</v>
+      </c>
+      <c r="N51">
+        <v>-8.302426570308096</v>
+      </c>
+      <c r="O51">
+        <v>-1.577461048358538</v>
+      </c>
+      <c r="P51">
+        <v>-6.724965521949558</v>
+      </c>
+      <c r="Q51">
+        <v>-4.114965521949559</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1354537515025271</v>
+      </c>
+      <c r="T51">
+        <v>2.377837826550973</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0.03673574908863127</v>
+      </c>
+      <c r="W51">
+        <v>0.1769516428924184</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.1933460478349015</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1575317182835739</v>
+      </c>
+      <c r="C52">
+        <v>0.3107269348450998</v>
+      </c>
+      <c r="D52">
+        <v>45.08261638585827</v>
+      </c>
+      <c r="E52">
+        <v>56.02811054898684</v>
+      </c>
+      <c r="F52">
+        <v>57.17188945101316</v>
+      </c>
+      <c r="G52">
+        <v>12.4</v>
+      </c>
+      <c r="H52">
+        <v>113.2</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>4.6</v>
+      </c>
+      <c r="K52">
+        <v>2.61</v>
+      </c>
+      <c r="L52">
+        <v>1.99</v>
+      </c>
+      <c r="M52">
+        <v>10.50247609215112</v>
+      </c>
+      <c r="N52">
+        <v>-8.512476092151118</v>
+      </c>
+      <c r="O52">
+        <v>-1.617370457508712</v>
+      </c>
+      <c r="P52">
+        <v>-6.895105634642405</v>
+      </c>
+      <c r="Q52">
+        <v>-4.285105634642406</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1379768265325777</v>
+      </c>
+      <c r="T52">
+        <v>2.425394583081992</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0.03600103410685865</v>
+      </c>
+      <c r="W52">
+        <v>0.1770866100345701</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.1894791268782035</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1592757182835739</v>
+      </c>
+      <c r="C53">
+        <v>-1.356956271211772</v>
+      </c>
+      <c r="D53">
+        <v>44.55837096882166</v>
+      </c>
+      <c r="E53">
+        <v>57.1715483380071</v>
+      </c>
+      <c r="F53">
+        <v>58.31532724003343</v>
+      </c>
+      <c r="G53">
+        <v>12.4</v>
+      </c>
+      <c r="H53">
+        <v>113.2</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>4.6</v>
+      </c>
+      <c r="K53">
+        <v>2.61</v>
+      </c>
+      <c r="L53">
+        <v>1.99</v>
+      </c>
+      <c r="M53">
+        <v>10.71252561399414</v>
+      </c>
+      <c r="N53">
+        <v>-8.72252561399414</v>
+      </c>
+      <c r="O53">
+        <v>-1.657279866658887</v>
+      </c>
+      <c r="P53">
+        <v>-7.065245747335253</v>
+      </c>
+      <c r="Q53">
+        <v>-4.455245747335253</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.140602884216916</v>
+      </c>
+      <c r="T53">
+        <v>2.474892431716318</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0.0352951314773124</v>
+      </c>
+      <c r="W53">
+        <v>0.1772162843476177</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.1857638498805916</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1610197182835739</v>
+      </c>
+      <c r="C54">
+        <v>-3.012587200640986</v>
+      </c>
+      <c r="D54">
+        <v>44.04617782841271</v>
+      </c>
+      <c r="E54">
+        <v>58.31498612702737</v>
+      </c>
+      <c r="F54">
+        <v>59.45876502905369</v>
+      </c>
+      <c r="G54">
+        <v>12.4</v>
+      </c>
+      <c r="H54">
+        <v>113.2</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>4.6</v>
+      </c>
+      <c r="K54">
+        <v>2.61</v>
+      </c>
+      <c r="L54">
+        <v>1.99</v>
+      </c>
+      <c r="M54">
+        <v>10.92257513583716</v>
+      </c>
+      <c r="N54">
+        <v>-8.932575135837164</v>
+      </c>
+      <c r="O54">
+        <v>-1.697189275809061</v>
+      </c>
+      <c r="P54">
+        <v>-7.235385860028103</v>
+      </c>
+      <c r="Q54">
+        <v>-4.625385860028103</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1433383609714351</v>
+      </c>
+      <c r="T54">
+        <v>2.526452690710408</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0.03461637894890254</v>
+      </c>
+      <c r="W54">
+        <v>0.1773409711870866</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.1821914681521187</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1627637182835739</v>
+      </c>
+      <c r="C55">
+        <v>-4.656576748682298</v>
+      </c>
+      <c r="D55">
+        <v>43.54562606939166</v>
+      </c>
+      <c r="E55">
+        <v>59.45842391604763</v>
+      </c>
+      <c r="F55">
+        <v>60.60220281807396</v>
+      </c>
+      <c r="G55">
+        <v>12.4</v>
+      </c>
+      <c r="H55">
+        <v>113.2</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>4.6</v>
+      </c>
+      <c r="K55">
+        <v>2.61</v>
+      </c>
+      <c r="L55">
+        <v>1.99</v>
+      </c>
+      <c r="M55">
+        <v>11.13262465768019</v>
+      </c>
+      <c r="N55">
+        <v>-9.142624657680186</v>
+      </c>
+      <c r="O55">
+        <v>-1.737098684959235</v>
+      </c>
+      <c r="P55">
+        <v>-7.40552597272095</v>
+      </c>
+      <c r="Q55">
+        <v>-4.79552597272095</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1461902409921039</v>
+      </c>
+      <c r="T55">
+        <v>2.580207003278715</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0.03396323972345155</v>
+      </c>
+      <c r="W55">
+        <v>0.177460952862802</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.178753893281324</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1645077182835739</v>
+      </c>
+      <c r="C56">
+        <v>-6.289317342388252</v>
+      </c>
+      <c r="D56">
+        <v>43.05632326470597</v>
+      </c>
+      <c r="E56">
+        <v>60.6018617050679</v>
+      </c>
+      <c r="F56">
+        <v>61.74564060709422</v>
+      </c>
+      <c r="G56">
+        <v>12.4</v>
+      </c>
+      <c r="H56">
+        <v>113.2</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>4.6</v>
+      </c>
+      <c r="K56">
+        <v>2.61</v>
+      </c>
+      <c r="L56">
+        <v>1.99</v>
+      </c>
+      <c r="M56">
+        <v>11.34267417952321</v>
+      </c>
+      <c r="N56">
+        <v>-9.352674179523209</v>
+      </c>
+      <c r="O56">
+        <v>-1.77700809410941</v>
+      </c>
+      <c r="P56">
+        <v>-7.5756660854138</v>
+      </c>
+      <c r="Q56">
+        <v>-4.965666085413799</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1491661157962801</v>
+      </c>
+      <c r="T56">
+        <v>2.636298459871731</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0.03333429083968393</v>
+      </c>
+      <c r="W56">
+        <v>0.1775764907727501</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.1754436359983366</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1662517182835739</v>
+      </c>
+      <c r="C57">
+        <v>-7.911183966688782</v>
+      </c>
+      <c r="D57">
+        <v>42.5778944294257</v>
+      </c>
+      <c r="E57">
+        <v>61.74529949408816</v>
+      </c>
+      <c r="F57">
+        <v>62.88907839611448</v>
+      </c>
+      <c r="G57">
+        <v>12.4</v>
+      </c>
+      <c r="H57">
+        <v>113.2</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>4.6</v>
+      </c>
+      <c r="K57">
+        <v>2.61</v>
+      </c>
+      <c r="L57">
+        <v>1.99</v>
+      </c>
+      <c r="M57">
+        <v>11.55272370136623</v>
+      </c>
+      <c r="N57">
+        <v>-9.562723701366231</v>
+      </c>
+      <c r="O57">
+        <v>-1.816917503259584</v>
+      </c>
+      <c r="P57">
+        <v>-7.745806198106647</v>
+      </c>
+      <c r="Q57">
+        <v>-5.135806198106648</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1522742517028641</v>
+      </c>
+      <c r="T57">
+        <v>2.694882870091103</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0.03272821282441695</v>
+      </c>
+      <c r="W57">
+        <v>0.1776878273041546</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.1722537517074577</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1679957182835739</v>
+      </c>
+      <c r="C58">
+        <v>-9.522535122799589</v>
+      </c>
+      <c r="D58">
+        <v>42.10998106233517</v>
+      </c>
+      <c r="E58">
+        <v>62.88873728310843</v>
+      </c>
+      <c r="F58">
+        <v>64.03251618513475</v>
+      </c>
+      <c r="G58">
+        <v>12.4</v>
+      </c>
+      <c r="H58">
+        <v>113.2</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>4.6</v>
+      </c>
+      <c r="K58">
+        <v>2.61</v>
+      </c>
+      <c r="L58">
+        <v>1.99</v>
+      </c>
+      <c r="M58">
+        <v>11.76277322320925</v>
+      </c>
+      <c r="N58">
+        <v>-9.772773223209255</v>
+      </c>
+      <c r="O58">
+        <v>-1.856826912409758</v>
+      </c>
+      <c r="P58">
+        <v>-7.915946310799496</v>
+      </c>
+      <c r="Q58">
+        <v>-5.305946310799497</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1555236665142928</v>
+      </c>
+      <c r="T58">
+        <v>2.756130208047719</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0.03214378045255236</v>
+      </c>
+      <c r="W58">
+        <v>0.1777951875308661</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.1691777918555387</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1697397182835739</v>
+      </c>
+      <c r="C59">
+        <v>-11.12371372412239</v>
+      </c>
+      <c r="D59">
+        <v>41.65224025003263</v>
+      </c>
+      <c r="E59">
+        <v>64.03217507212869</v>
+      </c>
+      <c r="F59">
+        <v>65.17595397415502</v>
+      </c>
+      <c r="G59">
+        <v>12.4</v>
+      </c>
+      <c r="H59">
+        <v>113.2</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>4.6</v>
+      </c>
+      <c r="K59">
+        <v>2.61</v>
+      </c>
+      <c r="L59">
+        <v>1.99</v>
+      </c>
+      <c r="M59">
+        <v>11.97282274505228</v>
+      </c>
+      <c r="N59">
+        <v>-9.982822745052278</v>
+      </c>
+      <c r="O59">
+        <v>-1.896736321559933</v>
+      </c>
+      <c r="P59">
+        <v>-8.086086423492345</v>
+      </c>
+      <c r="Q59">
+        <v>-5.476086423492346</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1589242168983461</v>
+      </c>
+      <c r="T59">
+        <v>2.820226259397665</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0.03157985447970056</v>
+      </c>
+      <c r="W59">
+        <v>0.177898780732079</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.1662097604194767</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1714837182835739</v>
+      </c>
+      <c r="C60">
+        <v>-12.71504793434222</v>
+      </c>
+      <c r="D60">
+        <v>41.20434382883304</v>
+      </c>
+      <c r="E60">
+        <v>65.17561286114893</v>
+      </c>
+      <c r="F60">
+        <v>66.31939176317526</v>
+      </c>
+      <c r="G60">
+        <v>12.4</v>
+      </c>
+      <c r="H60">
+        <v>113.2</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>4.6</v>
+      </c>
+      <c r="K60">
+        <v>2.61</v>
+      </c>
+      <c r="L60">
+        <v>1.99</v>
+      </c>
+      <c r="M60">
+        <v>12.18287226689529</v>
+      </c>
+      <c r="N60">
+        <v>-10.19287226689529</v>
+      </c>
+      <c r="O60">
+        <v>-1.936645730710106</v>
+      </c>
+      <c r="P60">
+        <v>-8.256226536185189</v>
+      </c>
+      <c r="Q60">
+        <v>-5.646226536185189</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1624866982530686</v>
+      </c>
+      <c r="T60">
+        <v>2.887374503669037</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.03103537423005056</v>
+      </c>
+      <c r="W60">
+        <v>0.1779988017539397</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.163344074895003</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1732277182835739</v>
+      </c>
+      <c r="C61">
+        <v>-14.29685195202661</v>
+      </c>
+      <c r="D61">
+        <v>40.76597760016892</v>
+      </c>
+      <c r="E61">
+        <v>66.3190506501692</v>
+      </c>
+      <c r="F61">
+        <v>67.46282955219553</v>
+      </c>
+      <c r="G61">
+        <v>12.4</v>
+      </c>
+      <c r="H61">
+        <v>113.2</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>4.6</v>
+      </c>
+      <c r="K61">
+        <v>2.61</v>
+      </c>
+      <c r="L61">
+        <v>1.99</v>
+      </c>
+      <c r="M61">
+        <v>12.39292178873832</v>
+      </c>
+      <c r="N61">
+        <v>-10.40292178873832</v>
+      </c>
+      <c r="O61">
+        <v>-1.976555139860281</v>
+      </c>
+      <c r="P61">
+        <v>-8.426366648878037</v>
+      </c>
+      <c r="Q61">
+        <v>-5.816366648878038</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1662229591860703</v>
+      </c>
+      <c r="T61">
+        <v>2.95779827205121</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.03050935093801581</v>
+      </c>
+      <c r="W61">
+        <v>0.1780954322326865</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.1605755312527148</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1749717182835739</v>
+      </c>
+      <c r="C62">
+        <v>-15.86942674566829</v>
+      </c>
+      <c r="D62">
+        <v>40.33684059554751</v>
+      </c>
+      <c r="E62">
+        <v>67.46248843918947</v>
+      </c>
+      <c r="F62">
+        <v>68.6062673412158</v>
+      </c>
+      <c r="G62">
+        <v>12.4</v>
+      </c>
+      <c r="H62">
+        <v>113.2</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>4.6</v>
+      </c>
+      <c r="K62">
+        <v>2.61</v>
+      </c>
+      <c r="L62">
+        <v>1.99</v>
+      </c>
+      <c r="M62">
+        <v>12.60297131058134</v>
+      </c>
+      <c r="N62">
+        <v>-10.61297131058134</v>
+      </c>
+      <c r="O62">
+        <v>-2.016464549010455</v>
+      </c>
+      <c r="P62">
+        <v>-8.596506761570886</v>
+      </c>
+      <c r="Q62">
+        <v>-5.986506761570887</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.170146033165722</v>
+      </c>
+      <c r="T62">
+        <v>3.03174322885249</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.03000086175571554</v>
+      </c>
+      <c r="W62">
+        <v>0.1781888416954751</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.1578992723985029</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1767157182835739</v>
+      </c>
+      <c r="C63">
+        <v>-17.43306074278581</v>
+      </c>
+      <c r="D63">
+        <v>39.91664438745025</v>
+      </c>
+      <c r="E63">
+        <v>68.60592622820974</v>
+      </c>
+      <c r="F63">
+        <v>69.74970513023607</v>
+      </c>
+      <c r="G63">
+        <v>12.4</v>
+      </c>
+      <c r="H63">
+        <v>113.2</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>4.6</v>
+      </c>
+      <c r="K63">
+        <v>2.61</v>
+      </c>
+      <c r="L63">
+        <v>1.99</v>
+      </c>
+      <c r="M63">
+        <v>12.81302083242437</v>
+      </c>
+      <c r="N63">
+        <v>-10.82302083242437</v>
+      </c>
+      <c r="O63">
+        <v>-2.056373958160629</v>
+      </c>
+      <c r="P63">
+        <v>-8.766646874263737</v>
+      </c>
+      <c r="Q63">
+        <v>-6.156646874263737</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1742702904263816</v>
+      </c>
+      <c r="T63">
+        <v>3.109480234720503</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.02950904434988413</v>
+      </c>
+      <c r="W63">
+        <v>0.1782791885529263</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.1553107597362323</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1784597182835739</v>
+      </c>
+      <c r="C64">
+        <v>-18.98803047639711</v>
+      </c>
+      <c r="D64">
+        <v>39.50511244285921</v>
+      </c>
+      <c r="E64">
+        <v>69.74936401722999</v>
+      </c>
+      <c r="F64">
+        <v>70.89314291925632</v>
+      </c>
+      <c r="G64">
+        <v>12.4</v>
+      </c>
+      <c r="H64">
+        <v>113.2</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>4.6</v>
+      </c>
+      <c r="K64">
+        <v>2.61</v>
+      </c>
+      <c r="L64">
+        <v>1.99</v>
+      </c>
+      <c r="M64">
+        <v>13.02307035426739</v>
+      </c>
+      <c r="N64">
+        <v>-11.03307035426739</v>
+      </c>
+      <c r="O64">
+        <v>-2.096283367310803</v>
+      </c>
+      <c r="P64">
+        <v>-8.936786986956582</v>
+      </c>
+      <c r="Q64">
+        <v>-6.326786986956582</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1786116138586548</v>
+      </c>
+      <c r="T64">
+        <v>3.19130866194999</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.0290330920216602</v>
+      </c>
+      <c r="W64">
+        <v>0.178366620995621</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.1528057474824221</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1802037182835738</v>
+      </c>
+      <c r="C65">
+        <v>-20.53460119191127</v>
+      </c>
+      <c r="D65">
+        <v>39.10197951636532</v>
+      </c>
+      <c r="E65">
+        <v>70.89280180625026</v>
+      </c>
+      <c r="F65">
+        <v>72.03658070827659</v>
+      </c>
+      <c r="G65">
+        <v>12.4</v>
+      </c>
+      <c r="H65">
+        <v>113.2</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>4.6</v>
+      </c>
+      <c r="K65">
+        <v>2.61</v>
+      </c>
+      <c r="L65">
+        <v>1.99</v>
+      </c>
+      <c r="M65">
+        <v>13.23311987611041</v>
+      </c>
+      <c r="N65">
+        <v>-11.24311987611041</v>
+      </c>
+      <c r="O65">
+        <v>-2.136192776460978</v>
+      </c>
+      <c r="P65">
+        <v>-9.106927099649432</v>
+      </c>
+      <c r="Q65">
+        <v>-6.496927099649433</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1831876034224022</v>
+      </c>
+      <c r="T65">
+        <v>3.277560247408097</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.02857224929115765</v>
+      </c>
+      <c r="W65">
+        <v>0.1784512778052143</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.1503802594271456</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1819477182835739</v>
+      </c>
+      <c r="C66">
+        <v>-22.07302741723705</v>
+      </c>
+      <c r="D66">
+        <v>38.70699108005981</v>
+      </c>
+      <c r="E66">
+        <v>72.03623959527053</v>
+      </c>
+      <c r="F66">
+        <v>73.18001849729686</v>
+      </c>
+      <c r="G66">
+        <v>12.4</v>
+      </c>
+      <c r="H66">
+        <v>113.2</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>4.6</v>
+      </c>
+      <c r="K66">
+        <v>2.61</v>
+      </c>
+      <c r="L66">
+        <v>1.99</v>
+      </c>
+      <c r="M66">
+        <v>13.44316939795343</v>
+      </c>
+      <c r="N66">
+        <v>-11.45316939795343</v>
+      </c>
+      <c r="O66">
+        <v>-2.176102185611152</v>
+      </c>
+      <c r="P66">
+        <v>-9.277067212342281</v>
+      </c>
+      <c r="Q66">
+        <v>-6.667067212342282</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1880178146285801</v>
+      </c>
+      <c r="T66">
+        <v>3.368603587613878</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.02812580789598331</v>
+      </c>
+      <c r="W66">
+        <v>0.1785332890895079</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.1480305678735965</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1836917182835739</v>
+      </c>
+      <c r="C67">
+        <v>-23.6035534986833</v>
+      </c>
+      <c r="D67">
+        <v>38.31990278763381</v>
+      </c>
+      <c r="E67">
+        <v>73.17967738429078</v>
+      </c>
+      <c r="F67">
+        <v>74.32345628631711</v>
+      </c>
+      <c r="G67">
+        <v>12.4</v>
+      </c>
+      <c r="H67">
+        <v>113.2</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>4.6</v>
+      </c>
+      <c r="K67">
+        <v>2.61</v>
+      </c>
+      <c r="L67">
+        <v>1.99</v>
+      </c>
+      <c r="M67">
+        <v>13.65321891979645</v>
+      </c>
+      <c r="N67">
+        <v>-11.66321891979645</v>
+      </c>
+      <c r="O67">
+        <v>-2.216011594761326</v>
+      </c>
+      <c r="P67">
+        <v>-9.447207325035127</v>
+      </c>
+      <c r="Q67">
+        <v>-6.837207325035127</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1931240379036824</v>
+      </c>
+      <c r="T67">
+        <v>3.464849404402846</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.02769310315912204</v>
+      </c>
+      <c r="W67">
+        <v>0.1786127769496693</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.145753174521695</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1854357182835739</v>
+      </c>
+      <c r="C68">
+        <v>-25.12641410502243</v>
+      </c>
+      <c r="D68">
+        <v>37.94047997031495</v>
+      </c>
+      <c r="E68">
+        <v>74.32311517331105</v>
+      </c>
+      <c r="F68">
+        <v>75.46689407533738</v>
+      </c>
+      <c r="G68">
+        <v>12.4</v>
+      </c>
+      <c r="H68">
+        <v>113.2</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>4.6</v>
+      </c>
+      <c r="K68">
+        <v>2.61</v>
+      </c>
+      <c r="L68">
+        <v>1.99</v>
+      </c>
+      <c r="M68">
+        <v>13.86326844163948</v>
+      </c>
+      <c r="N68">
+        <v>-11.87326844163948</v>
+      </c>
+      <c r="O68">
+        <v>-2.255921003911501</v>
+      </c>
+      <c r="P68">
+        <v>-9.617347437727975</v>
+      </c>
+      <c r="Q68">
+        <v>-7.007347437727976</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1985306272537907</v>
+      </c>
+      <c r="T68">
+        <v>3.566756739826459</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.02727351068701413</v>
+      </c>
+      <c r="W68">
+        <v>0.1786898560867955</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.143544793089548</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1871797182835739</v>
+      </c>
+      <c r="C69">
+        <v>-26.64183470190134</v>
+      </c>
+      <c r="D69">
+        <v>37.56849716245631</v>
+      </c>
+      <c r="E69">
+        <v>75.46655296233132</v>
+      </c>
+      <c r="F69">
+        <v>76.61033186435765</v>
+      </c>
+      <c r="G69">
+        <v>12.4</v>
+      </c>
+      <c r="H69">
+        <v>113.2</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>4.6</v>
+      </c>
+      <c r="K69">
+        <v>2.61</v>
+      </c>
+      <c r="L69">
+        <v>1.99</v>
+      </c>
+      <c r="M69">
+        <v>14.0733179634825</v>
+      </c>
+      <c r="N69">
+        <v>-12.0833179634825</v>
+      </c>
+      <c r="O69">
+        <v>-2.295830413061675</v>
+      </c>
+      <c r="P69">
+        <v>-9.787487550420824</v>
+      </c>
+      <c r="Q69">
+        <v>-7.177487550420825</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.2042648886857238</v>
+      </c>
+      <c r="T69">
+        <v>3.674840277396958</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.02686644336332735</v>
+      </c>
+      <c r="W69">
+        <v>0.1787646343541568</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.1414023334911966</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1889237182835738</v>
+      </c>
+      <c r="C70">
+        <v>-28.15003199861583</v>
+      </c>
+      <c r="D70">
+        <v>37.20373765476209</v>
+      </c>
+      <c r="E70">
+        <v>76.60999075135159</v>
+      </c>
+      <c r="F70">
+        <v>77.75376965337792</v>
+      </c>
+      <c r="G70">
+        <v>12.4</v>
+      </c>
+      <c r="H70">
+        <v>113.2</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>4.6</v>
+      </c>
+      <c r="K70">
+        <v>2.61</v>
+      </c>
+      <c r="L70">
+        <v>1.99</v>
+      </c>
+      <c r="M70">
+        <v>14.28336748532552</v>
+      </c>
+      <c r="N70">
+        <v>-12.29336748532552</v>
+      </c>
+      <c r="O70">
+        <v>-2.33573982221185</v>
+      </c>
+      <c r="P70">
+        <v>-9.957627663113675</v>
+      </c>
+      <c r="Q70">
+        <v>-7.347627663113675</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.2103575414571526</v>
+      </c>
+      <c r="T70">
+        <v>3.789679036065613</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.02647134860798429</v>
+      </c>
+      <c r="W70">
+        <v>0.1788372132607133</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.1393228874104437</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1906677182835739</v>
+      </c>
+      <c r="C71">
+        <v>-29.65121436910818</v>
+      </c>
+      <c r="D71">
+        <v>36.84599307328999</v>
+      </c>
+      <c r="E71">
+        <v>77.75342854037184</v>
+      </c>
+      <c r="F71">
+        <v>78.89720744239817</v>
+      </c>
+      <c r="G71">
+        <v>12.4</v>
+      </c>
+      <c r="H71">
+        <v>113.2</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>4.6</v>
+      </c>
+      <c r="K71">
+        <v>2.61</v>
+      </c>
+      <c r="L71">
+        <v>1.99</v>
+      </c>
+      <c r="M71">
+        <v>14.49341700716854</v>
+      </c>
+      <c r="N71">
+        <v>-12.50341700716854</v>
+      </c>
+      <c r="O71">
+        <v>-2.375649231362023</v>
+      </c>
+      <c r="P71">
+        <v>-10.12776777580652</v>
+      </c>
+      <c r="Q71">
+        <v>-7.51776777580652</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.2168432686009318</v>
+      </c>
+      <c r="T71">
+        <v>3.91192674690644</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.02608770587453526</v>
+      </c>
+      <c r="W71">
+        <v>0.1789076884308479</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.137303715129133</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1924117182835739</v>
+      </c>
+      <c r="C72">
+        <v>-31.14558224890672</v>
+      </c>
+      <c r="D72">
+        <v>36.49506298251172</v>
+      </c>
+      <c r="E72">
+        <v>78.89686632939211</v>
+      </c>
+      <c r="F72">
+        <v>80.04064523141844</v>
+      </c>
+      <c r="G72">
+        <v>12.4</v>
+      </c>
+      <c r="H72">
+        <v>113.2</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>4.6</v>
+      </c>
+      <c r="K72">
+        <v>2.61</v>
+      </c>
+      <c r="L72">
+        <v>1.99</v>
+      </c>
+      <c r="M72">
+        <v>14.70346652901157</v>
+      </c>
+      <c r="N72">
+        <v>-12.71346652901157</v>
+      </c>
+      <c r="O72">
+        <v>-2.415558640512198</v>
+      </c>
+      <c r="P72">
+        <v>-10.29790788849937</v>
+      </c>
+      <c r="Q72">
+        <v>-7.687907888499371</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.2237613775542961</v>
+      </c>
+      <c r="T72">
+        <v>4.042324305136654</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.02571502436204189</v>
+      </c>
+      <c r="W72">
+        <v>0.1789761500246929</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.135342233484431</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1941557182835739</v>
+      </c>
+      <c r="C73">
+        <v>-32.63332850959601</v>
+      </c>
+      <c r="D73">
+        <v>36.15075451084269</v>
+      </c>
+      <c r="E73">
+        <v>80.04030411841237</v>
+      </c>
+      <c r="F73">
+        <v>81.18408302043869</v>
+      </c>
+      <c r="G73">
+        <v>12.4</v>
+      </c>
+      <c r="H73">
+        <v>113.2</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>4.6</v>
+      </c>
+      <c r="K73">
+        <v>2.61</v>
+      </c>
+      <c r="L73">
+        <v>1.99</v>
+      </c>
+      <c r="M73">
+        <v>14.91351605085459</v>
+      </c>
+      <c r="N73">
+        <v>-12.92351605085459</v>
+      </c>
+      <c r="O73">
+        <v>-2.455468049662372</v>
+      </c>
+      <c r="P73">
+        <v>-10.46804800119222</v>
+      </c>
+      <c r="Q73">
+        <v>-7.858048001192216</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.2311565974699615</v>
+      </c>
+      <c r="T73">
+        <v>4.181714798417228</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.02535284092032299</v>
+      </c>
+      <c r="W73">
+        <v>0.1790426831229367</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.1334360048438052</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1958997182835739</v>
+      </c>
+      <c r="C74">
+        <v>-34.11463881228802</v>
+      </c>
+      <c r="D74">
+        <v>35.81288199717094</v>
+      </c>
+      <c r="E74">
+        <v>81.18374190743263</v>
+      </c>
+      <c r="F74">
+        <v>82.32752080945896</v>
+      </c>
+      <c r="G74">
+        <v>12.4</v>
+      </c>
+      <c r="H74">
+        <v>113.2</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>4.6</v>
+      </c>
+      <c r="K74">
+        <v>2.61</v>
+      </c>
+      <c r="L74">
+        <v>1.99</v>
+      </c>
+      <c r="M74">
+        <v>15.12356557269761</v>
+      </c>
+      <c r="N74">
+        <v>-13.13356557269761</v>
+      </c>
+      <c r="O74">
+        <v>-2.495377458812546</v>
+      </c>
+      <c r="P74">
+        <v>-10.63818811388506</v>
+      </c>
+      <c r="Q74">
+        <v>-8.028188113885065</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.2390800473796029</v>
+      </c>
+      <c r="T74">
+        <v>4.331061755503557</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.02500071812976295</v>
+      </c>
+      <c r="W74">
+        <v>0.1791073680795626</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.1315827269987524</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1976437182835739</v>
+      </c>
+      <c r="C75">
+        <v>-35.58969194145477</v>
+      </c>
+      <c r="D75">
+        <v>35.48126665702444</v>
+      </c>
+      <c r="E75">
+        <v>82.32717969645289</v>
+      </c>
+      <c r="F75">
+        <v>83.47095859847921</v>
+      </c>
+      <c r="G75">
+        <v>12.4</v>
+      </c>
+      <c r="H75">
+        <v>113.2</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>4.6</v>
+      </c>
+      <c r="K75">
+        <v>2.61</v>
+      </c>
+      <c r="L75">
+        <v>1.99</v>
+      </c>
+      <c r="M75">
+        <v>15.33361509454063</v>
+      </c>
+      <c r="N75">
+        <v>-13.34361509454063</v>
+      </c>
+      <c r="O75">
+        <v>-2.53528686796272</v>
+      </c>
+      <c r="P75">
+        <v>-10.80832822657791</v>
+      </c>
+      <c r="Q75">
+        <v>-8.198328226577912</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.2475904195047734</v>
+      </c>
+      <c r="T75">
+        <v>4.491471450151836</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.02465824253894428</v>
+      </c>
+      <c r="W75">
+        <v>0.1791702808455959</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.1297802238891804</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1993877182835739</v>
+      </c>
+      <c r="C76">
+        <v>-37.0586601203845</v>
+      </c>
+      <c r="D76">
+        <v>35.15573626711498</v>
+      </c>
+      <c r="E76">
+        <v>83.47061748547316</v>
+      </c>
+      <c r="F76">
+        <v>84.61439638749948</v>
+      </c>
+      <c r="G76">
+        <v>12.4</v>
+      </c>
+      <c r="H76">
+        <v>113.2</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>4.6</v>
+      </c>
+      <c r="K76">
+        <v>2.61</v>
+      </c>
+      <c r="L76">
+        <v>1.99</v>
+      </c>
+      <c r="M76">
+        <v>15.54366461638365</v>
+      </c>
+      <c r="N76">
+        <v>-13.55366461638365</v>
+      </c>
+      <c r="O76">
+        <v>-2.575196277112894</v>
+      </c>
+      <c r="P76">
+        <v>-10.97846833927076</v>
+      </c>
+      <c r="Q76">
+        <v>-8.368468339270761</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.2567554356395724</v>
+      </c>
+      <c r="T76">
+        <v>4.664220352080753</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.02432502304517477</v>
+      </c>
+      <c r="W76">
+        <v>0.1792314932666014</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.1280264370798672</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.2011317182835738</v>
+      </c>
+      <c r="C77">
+        <v>-38.52170930942994</v>
+      </c>
+      <c r="D77">
+        <v>34.83612486708981</v>
+      </c>
+      <c r="E77">
+        <v>84.61405527449342</v>
+      </c>
+      <c r="F77">
+        <v>85.75783417651975</v>
+      </c>
+      <c r="G77">
+        <v>12.4</v>
+      </c>
+      <c r="H77">
+        <v>113.2</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>4.6</v>
+      </c>
+      <c r="K77">
+        <v>2.61</v>
+      </c>
+      <c r="L77">
+        <v>1.99</v>
+      </c>
+      <c r="M77">
+        <v>15.75371413822668</v>
+      </c>
+      <c r="N77">
+        <v>-13.76371413822668</v>
+      </c>
+      <c r="O77">
+        <v>-2.615105686263069</v>
+      </c>
+      <c r="P77">
+        <v>-11.14860845196361</v>
+      </c>
+      <c r="Q77">
+        <v>-8.53860845196361</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.2666536530651553</v>
+      </c>
+      <c r="T77">
+        <v>4.850789166163985</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.02400068940457243</v>
+      </c>
+      <c r="W77">
+        <v>0.17929107335638</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.1263194179188023</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.2028757182835739</v>
+      </c>
+      <c r="C78">
+        <v>-39.97899948813475</v>
+      </c>
+      <c r="D78">
+        <v>34.52227247740525</v>
+      </c>
+      <c r="E78">
+        <v>85.75749306351368</v>
+      </c>
+      <c r="F78">
+        <v>86.90127196554</v>
+      </c>
+      <c r="G78">
+        <v>12.4</v>
+      </c>
+      <c r="H78">
+        <v>113.2</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>4.6</v>
+      </c>
+      <c r="K78">
+        <v>2.61</v>
+      </c>
+      <c r="L78">
+        <v>1.99</v>
+      </c>
+      <c r="M78">
+        <v>15.9637636600697</v>
+      </c>
+      <c r="N78">
+        <v>-13.9737636600697</v>
+      </c>
+      <c r="O78">
+        <v>-2.655015095413243</v>
+      </c>
+      <c r="P78">
+        <v>-11.31874856465646</v>
+      </c>
+      <c r="Q78">
+        <v>-8.708748564656457</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.2773767219428701</v>
+      </c>
+      <c r="T78">
+        <v>5.052905381420817</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.02368489085977543</v>
+      </c>
+      <c r="W78">
+        <v>0.1793490855490593</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.1246573203146075</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.2046197182835739</v>
+      </c>
+      <c r="C79">
+        <v>-41.43068492224524</v>
+      </c>
+      <c r="D79">
+        <v>34.21402483231503</v>
+      </c>
+      <c r="E79">
+        <v>86.90093085253395</v>
+      </c>
+      <c r="F79">
+        <v>88.04470975456027</v>
+      </c>
+      <c r="G79">
+        <v>12.4</v>
+      </c>
+      <c r="H79">
+        <v>113.2</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>4.6</v>
+      </c>
+      <c r="K79">
+        <v>2.61</v>
+      </c>
+      <c r="L79">
+        <v>1.99</v>
+      </c>
+      <c r="M79">
+        <v>16.17381318191272</v>
+      </c>
+      <c r="N79">
+        <v>-14.18381318191272</v>
+      </c>
+      <c r="O79">
+        <v>-2.694924504563418</v>
+      </c>
+      <c r="P79">
+        <v>-11.48888867734931</v>
+      </c>
+      <c r="Q79">
+        <v>-8.878888677349307</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2890322315925601</v>
+      </c>
+      <c r="T79">
+        <v>5.272596919743462</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.02337729487458354</v>
+      </c>
+      <c r="W79">
+        <v>0.179405590931539</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.1230383940767554</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.2063637182835739</v>
+      </c>
+      <c r="C80">
+        <v>-42.87691441654376</v>
+      </c>
+      <c r="D80">
+        <v>33.91123312703678</v>
+      </c>
+      <c r="E80">
+        <v>88.04436864155421</v>
+      </c>
+      <c r="F80">
+        <v>89.18814754358054</v>
+      </c>
+      <c r="G80">
+        <v>12.4</v>
+      </c>
+      <c r="H80">
+        <v>113.2</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>4.6</v>
+      </c>
+      <c r="K80">
+        <v>2.61</v>
+      </c>
+      <c r="L80">
+        <v>1.99</v>
+      </c>
+      <c r="M80">
+        <v>16.38386270375575</v>
+      </c>
+      <c r="N80">
+        <v>-14.39386270375575</v>
+      </c>
+      <c r="O80">
+        <v>-2.734833913713592</v>
+      </c>
+      <c r="P80">
+        <v>-11.65902879004215</v>
+      </c>
+      <c r="Q80">
+        <v>-9.049028790042154</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.3017473330285856</v>
+      </c>
+      <c r="T80">
+        <v>5.512260416095438</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.02307758596593503</v>
+      </c>
+      <c r="W80">
+        <v>0.1794606474580577</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.1214609787680792</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.2081077182835739</v>
+      </c>
+      <c r="C81">
+        <v>-44.31783155437481</v>
+      </c>
+      <c r="D81">
+        <v>33.613753778226</v>
+      </c>
+      <c r="E81">
+        <v>89.18780643057448</v>
+      </c>
+      <c r="F81">
+        <v>90.33158533260081</v>
+      </c>
+      <c r="G81">
+        <v>12.4</v>
+      </c>
+      <c r="H81">
+        <v>113.2</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>4.6</v>
+      </c>
+      <c r="K81">
+        <v>2.61</v>
+      </c>
+      <c r="L81">
+        <v>1.99</v>
+      </c>
+      <c r="M81">
+        <v>16.59391222559877</v>
+      </c>
+      <c r="N81">
+        <v>-14.60391222559877</v>
+      </c>
+      <c r="O81">
+        <v>-2.774743322863766</v>
+      </c>
+      <c r="P81">
+        <v>-11.829168902735</v>
+      </c>
+      <c r="Q81">
+        <v>-9.219168902735003</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.3156733965061373</v>
+      </c>
+      <c r="T81">
+        <v>5.774749007338078</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.02278546462459408</v>
+      </c>
+      <c r="W81">
+        <v>0.1795143101484621</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.1199234980241795</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.2098517182835739</v>
+      </c>
+      <c r="C82">
+        <v>-45.75357492467329</v>
+      </c>
+      <c r="D82">
+        <v>33.32144819694778</v>
+      </c>
+      <c r="E82">
+        <v>90.33124421959474</v>
+      </c>
+      <c r="F82">
+        <v>91.47502312162106</v>
+      </c>
+      <c r="G82">
+        <v>12.4</v>
+      </c>
+      <c r="H82">
+        <v>113.2</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>4.6</v>
+      </c>
+      <c r="K82">
+        <v>2.61</v>
+      </c>
+      <c r="L82">
+        <v>1.99</v>
+      </c>
+      <c r="M82">
+        <v>16.80396174744179</v>
+      </c>
+      <c r="N82">
+        <v>-14.81396174744179</v>
+      </c>
+      <c r="O82">
+        <v>-2.81465273201394</v>
+      </c>
+      <c r="P82">
+        <v>-11.99930901542785</v>
+      </c>
+      <c r="Q82">
+        <v>-9.38930901542785</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.3309920663314442</v>
+      </c>
+      <c r="T82">
+        <v>6.063486457704983</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.02250064631678666</v>
+      </c>
+      <c r="W82">
+        <v>0.1795666312716063</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.1184244542988772</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.2115957182835739</v>
+      </c>
+      <c r="C83">
+        <v>-47.18427833724973</v>
+      </c>
+      <c r="D83">
+        <v>33.0341825733916</v>
+      </c>
+      <c r="E83">
+        <v>91.47468200861501</v>
+      </c>
+      <c r="F83">
+        <v>92.61846091064133</v>
+      </c>
+      <c r="G83">
+        <v>12.4</v>
+      </c>
+      <c r="H83">
+        <v>113.2</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>4.6</v>
+      </c>
+      <c r="K83">
+        <v>2.61</v>
+      </c>
+      <c r="L83">
+        <v>1.99</v>
+      </c>
+      <c r="M83">
+        <v>17.01401126928481</v>
+      </c>
+      <c r="N83">
+        <v>-15.02401126928481</v>
+      </c>
+      <c r="O83">
+        <v>-2.854562141164114</v>
+      </c>
+      <c r="P83">
+        <v>-12.1694491281207</v>
+      </c>
+      <c r="Q83">
+        <v>-9.559449128120697</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.3479232277173097</v>
+      </c>
+      <c r="T83">
+        <v>6.382617323899981</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.02222286055978929</v>
+      </c>
+      <c r="W83">
+        <v>0.1796176605151667</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.116962423998891</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.2133397182835738</v>
+      </c>
+      <c r="C84">
+        <v>-48.61007102703459</v>
+      </c>
+      <c r="D84">
+        <v>32.75182767262702</v>
+      </c>
+      <c r="E84">
+        <v>92.61811979763527</v>
+      </c>
+      <c r="F84">
+        <v>93.7618986996616</v>
+      </c>
+      <c r="G84">
+        <v>12.4</v>
+      </c>
+      <c r="H84">
+        <v>113.2</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>4.6</v>
+      </c>
+      <c r="K84">
+        <v>2.61</v>
+      </c>
+      <c r="L84">
+        <v>1.99</v>
+      </c>
+      <c r="M84">
+        <v>17.22406079112784</v>
+      </c>
+      <c r="N84">
+        <v>-15.23406079112784</v>
+      </c>
+      <c r="O84">
+        <v>-2.894471550314289</v>
+      </c>
+      <c r="P84">
+        <v>-12.33958924081355</v>
+      </c>
+      <c r="Q84">
+        <v>-9.729589240813548</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.3667356292571602</v>
+      </c>
+      <c r="T84">
+        <v>6.737207175227756</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.02195185006515771</v>
+      </c>
+      <c r="W84">
+        <v>0.1796674451430305</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.1155360529745143</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.2150837182835739</v>
+      </c>
+      <c r="C85">
+        <v>-50.03107784793692</v>
+      </c>
+      <c r="D85">
+        <v>32.47425864074495</v>
+      </c>
+      <c r="E85">
+        <v>93.76155758665554</v>
+      </c>
+      <c r="F85">
+        <v>94.90533648868187</v>
+      </c>
+      <c r="G85">
+        <v>12.4</v>
+      </c>
+      <c r="H85">
+        <v>113.2</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>4.6</v>
+      </c>
+      <c r="K85">
+        <v>2.61</v>
+      </c>
+      <c r="L85">
+        <v>1.99</v>
+      </c>
+      <c r="M85">
+        <v>17.43411031297086</v>
+      </c>
+      <c r="N85">
+        <v>-15.44411031297086</v>
+      </c>
+      <c r="O85">
+        <v>-2.934380959464463</v>
+      </c>
+      <c r="P85">
+        <v>-12.5097293535064</v>
+      </c>
+      <c r="Q85">
+        <v>-9.899729353506396</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.3877612545075814</v>
+      </c>
+      <c r="T85">
+        <v>7.13351347965292</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.02168736994389075</v>
+      </c>
+      <c r="W85">
+        <v>0.1797160301413073</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.1141440523362671</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2168277182835739</v>
+      </c>
+      <c r="C86">
+        <v>-51.4474194569282</v>
+      </c>
+      <c r="D86">
+        <v>32.20135482077391</v>
+      </c>
+      <c r="E86">
+        <v>94.90499537567578</v>
+      </c>
+      <c r="F86">
+        <v>96.04877427770211</v>
+      </c>
+      <c r="G86">
+        <v>12.4</v>
+      </c>
+      <c r="H86">
+        <v>113.2</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>4.6</v>
+      </c>
+      <c r="K86">
+        <v>2.61</v>
+      </c>
+      <c r="L86">
+        <v>1.99</v>
+      </c>
+      <c r="M86">
+        <v>17.64415983481388</v>
+      </c>
+      <c r="N86">
+        <v>-15.65415983481388</v>
+      </c>
+      <c r="O86">
+        <v>-2.974290368614636</v>
+      </c>
+      <c r="P86">
+        <v>-12.67986946619924</v>
+      </c>
+      <c r="Q86">
+        <v>-10.06986946619924</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.4114150829143051</v>
+      </c>
+      <c r="T86">
+        <v>7.579358072131224</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.02142918696836825</v>
+      </c>
+      <c r="W86">
+        <v>0.1797634583539107</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.1127851945703592</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2185717182835739</v>
+      </c>
+      <c r="C87">
+        <v>-52.85921248892176</v>
+      </c>
+      <c r="D87">
+        <v>31.93299957780062</v>
+      </c>
+      <c r="E87">
+        <v>96.04843316469605</v>
+      </c>
+      <c r="F87">
+        <v>97.19221206672238</v>
+      </c>
+      <c r="G87">
+        <v>12.4</v>
+      </c>
+      <c r="H87">
+        <v>113.2</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>4.6</v>
+      </c>
+      <c r="K87">
+        <v>2.61</v>
+      </c>
+      <c r="L87">
+        <v>1.99</v>
+      </c>
+      <c r="M87">
+        <v>17.8542093566569</v>
+      </c>
+      <c r="N87">
+        <v>-15.8642093566569</v>
+      </c>
+      <c r="O87">
+        <v>-3.014199777764811</v>
+      </c>
+      <c r="P87">
+        <v>-12.85000957889209</v>
+      </c>
+      <c r="Q87">
+        <v>-10.24000957889209</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.4382227551085922</v>
+      </c>
+      <c r="T87">
+        <v>8.084648610273307</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.02117707888638744</v>
+      </c>
+      <c r="W87">
+        <v>0.1798097706085706</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.1114583099283549</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2203157182835738</v>
+      </c>
+      <c r="C88">
+        <v>-54.26656972297997</v>
+      </c>
+      <c r="D88">
+        <v>31.66908013276268</v>
+      </c>
+      <c r="E88">
+        <v>97.19187095371632</v>
+      </c>
+      <c r="F88">
+        <v>98.33564985574264</v>
+      </c>
+      <c r="G88">
+        <v>12.4</v>
+      </c>
+      <c r="H88">
+        <v>113.2</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>4.6</v>
+      </c>
+      <c r="K88">
+        <v>2.61</v>
+      </c>
+      <c r="L88">
+        <v>1.99</v>
+      </c>
+      <c r="M88">
+        <v>18.06425887849992</v>
+      </c>
+      <c r="N88">
+        <v>-16.07425887849993</v>
+      </c>
+      <c r="O88">
+        <v>-3.054109186914986</v>
+      </c>
+      <c r="P88">
+        <v>-13.02014969158494</v>
+      </c>
+      <c r="Q88">
+        <v>-10.41014969158494</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.4688600947592058</v>
+      </c>
+      <c r="T88">
+        <v>8.662123511007113</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.02093083378305735</v>
+      </c>
+      <c r="W88">
+        <v>0.1798550058340524</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.1101622830687229</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2220597182835738</v>
+      </c>
+      <c r="C89">
+        <v>-55.66960024034707</v>
+      </c>
+      <c r="D89">
+        <v>31.40948740441584</v>
+      </c>
+      <c r="E89">
+        <v>98.33530874273659</v>
+      </c>
+      <c r="F89">
+        <v>99.47908764476291</v>
+      </c>
+      <c r="G89">
+        <v>12.4</v>
+      </c>
+      <c r="H89">
+        <v>113.2</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>4.6</v>
+      </c>
+      <c r="K89">
+        <v>2.61</v>
+      </c>
+      <c r="L89">
+        <v>1.99</v>
+      </c>
+      <c r="M89">
+        <v>18.27430840034295</v>
+      </c>
+      <c r="N89">
+        <v>-16.28430840034295</v>
+      </c>
+      <c r="O89">
+        <v>-3.09401859606516</v>
+      </c>
+      <c r="P89">
+        <v>-13.19028980427779</v>
+      </c>
+      <c r="Q89">
+        <v>-10.58028980427779</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.5042108712791448</v>
+      </c>
+      <c r="T89">
+        <v>9.328440704161507</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.02069024948670037</v>
+      </c>
+      <c r="W89">
+        <v>0.1798992011692931</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.1088960499300019</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2238037182835739</v>
+      </c>
+      <c r="C90">
+        <v>-57.06840957477283</v>
+      </c>
+      <c r="D90">
+        <v>31.15411585901034</v>
+      </c>
+      <c r="E90">
+        <v>99.47874653175684</v>
+      </c>
+      <c r="F90">
+        <v>100.6225254337832</v>
+      </c>
+      <c r="G90">
+        <v>12.4</v>
+      </c>
+      <c r="H90">
+        <v>113.2</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>4.6</v>
+      </c>
+      <c r="K90">
+        <v>2.61</v>
+      </c>
+      <c r="L90">
+        <v>1.99</v>
+      </c>
+      <c r="M90">
+        <v>18.48435792218597</v>
+      </c>
+      <c r="N90">
+        <v>-16.49435792218597</v>
+      </c>
+      <c r="O90">
+        <v>-3.133928005215334</v>
+      </c>
+      <c r="P90">
+        <v>-13.36042991697063</v>
+      </c>
+      <c r="Q90">
+        <v>-10.75042991697063</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.5454534438857402</v>
+      </c>
+      <c r="T90">
+        <v>10.10581076284163</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.0204551330152606</v>
+      </c>
+      <c r="W90">
+        <v>0.1799423920650966</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.107658594817161</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2255477182835738</v>
+      </c>
+      <c r="C91">
+        <v>-58.46309985556211</v>
+      </c>
+      <c r="D91">
+        <v>30.90286336724132</v>
+      </c>
+      <c r="E91">
+        <v>100.6221843207771</v>
+      </c>
+      <c r="F91">
+        <v>101.7659632228034</v>
+      </c>
+      <c r="G91">
+        <v>12.4</v>
+      </c>
+      <c r="H91">
+        <v>113.2</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>4.6</v>
+      </c>
+      <c r="K91">
+        <v>2.61</v>
+      </c>
+      <c r="L91">
+        <v>1.99</v>
+      </c>
+      <c r="M91">
+        <v>18.69440744402899</v>
+      </c>
+      <c r="N91">
+        <v>-16.70440744402899</v>
+      </c>
+      <c r="O91">
+        <v>-3.173837414365508</v>
+      </c>
+      <c r="P91">
+        <v>-13.53057002966348</v>
+      </c>
+      <c r="Q91">
+        <v>-10.92057002966348</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.5941946660571712</v>
+      </c>
+      <c r="T91">
+        <v>11.02452083219088</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.02022530006003295</v>
+      </c>
+      <c r="W91">
+        <v>0.179984612378972</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.1064489476843838</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2272917182835739</v>
+      </c>
+      <c r="C92">
+        <v>-59.8537699437579</v>
+      </c>
+      <c r="D92">
+        <v>30.65563106806581</v>
+      </c>
+      <c r="E92">
+        <v>101.7656221097974</v>
+      </c>
+      <c r="F92">
+        <v>102.9094010118237</v>
+      </c>
+      <c r="G92">
+        <v>12.4</v>
+      </c>
+      <c r="H92">
+        <v>113.2</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>4.6</v>
+      </c>
+      <c r="K92">
+        <v>2.61</v>
+      </c>
+      <c r="L92">
+        <v>1.99</v>
+      </c>
+      <c r="M92">
+        <v>18.90445696587201</v>
+      </c>
+      <c r="N92">
+        <v>-16.91445696587202</v>
+      </c>
+      <c r="O92">
+        <v>-3.213746823515683</v>
+      </c>
+      <c r="P92">
+        <v>-13.70071014235633</v>
+      </c>
+      <c r="Q92">
+        <v>-11.09071014235633</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.6526841326628883</v>
+      </c>
+      <c r="T92">
+        <v>12.12697291540996</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.02000057450381036</v>
+      </c>
+      <c r="W92">
+        <v>0.1800258944636501</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.1052661815990018</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2290357182835739</v>
+      </c>
+      <c r="C93">
+        <v>-61.24051556183903</v>
+      </c>
+      <c r="D93">
+        <v>30.41232323900492</v>
+      </c>
+      <c r="E93">
+        <v>102.9090598988176</v>
+      </c>
+      <c r="F93">
+        <v>104.052838800844</v>
+      </c>
+      <c r="G93">
+        <v>12.4</v>
+      </c>
+      <c r="H93">
+        <v>113.2</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>4.6</v>
+      </c>
+      <c r="K93">
+        <v>2.61</v>
+      </c>
+      <c r="L93">
+        <v>1.99</v>
+      </c>
+      <c r="M93">
+        <v>19.11450648771504</v>
+      </c>
+      <c r="N93">
+        <v>-17.12450648771504</v>
+      </c>
+      <c r="O93">
+        <v>-3.253656232665857</v>
+      </c>
+      <c r="P93">
+        <v>-13.87085025504918</v>
+      </c>
+      <c r="Q93">
+        <v>-11.26085025504918</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.7241712585143205</v>
+      </c>
+      <c r="T93">
+        <v>13.47441435045552</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.01978078797080145</v>
+      </c>
+      <c r="W93">
+        <v>0.1800662692497638</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.1041094103726392</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2307797182835739</v>
+      </c>
+      <c r="C94">
+        <v>-62.62342941729044</v>
+      </c>
+      <c r="D94">
+        <v>30.17284717257379</v>
+      </c>
+      <c r="E94">
+        <v>104.0524976878379</v>
+      </c>
+      <c r="F94">
+        <v>105.1962765898642</v>
+      </c>
+      <c r="G94">
+        <v>12.4</v>
+      </c>
+      <c r="H94">
+        <v>113.2</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>4.6</v>
+      </c>
+      <c r="K94">
+        <v>2.61</v>
+      </c>
+      <c r="L94">
+        <v>1.99</v>
+      </c>
+      <c r="M94">
+        <v>19.32455600955806</v>
+      </c>
+      <c r="N94">
+        <v>-17.33455600955806</v>
+      </c>
+      <c r="O94">
+        <v>-3.293565641816032</v>
+      </c>
+      <c r="P94">
+        <v>-14.04099036774203</v>
+      </c>
+      <c r="Q94">
+        <v>-11.43099036774203</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.8135301658286107</v>
+      </c>
+      <c r="T94">
+        <v>15.15871614426246</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.01956577940590144</v>
+      </c>
+      <c r="W94">
+        <v>0.1801057663231359</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.1029777863468496</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2325237182835738</v>
+      </c>
+      <c r="C95">
+        <v>-64.00260132038061</v>
+      </c>
+      <c r="D95">
+        <v>29.93711305850389</v>
+      </c>
+      <c r="E95">
+        <v>105.1959354768582</v>
+      </c>
+      <c r="F95">
+        <v>106.3397143788845</v>
+      </c>
+      <c r="G95">
+        <v>12.4</v>
+      </c>
+      <c r="H95">
+        <v>113.2</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>4.6</v>
+      </c>
+      <c r="K95">
+        <v>2.61</v>
+      </c>
+      <c r="L95">
+        <v>1.99</v>
+      </c>
+      <c r="M95">
+        <v>19.53460553140108</v>
+      </c>
+      <c r="N95">
+        <v>-17.54460553140108</v>
+      </c>
+      <c r="O95">
+        <v>-3.333475050966205</v>
+      </c>
+      <c r="P95">
+        <v>-14.21113048043488</v>
+      </c>
+      <c r="Q95">
+        <v>-11.60113048043488</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.9284201895184124</v>
+      </c>
+      <c r="T95">
+        <v>17.32424702201424</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.0193553946811068</v>
+      </c>
+      <c r="W95">
+        <v>0.1801444139970807</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.1018704983216147</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2342677182835738</v>
+      </c>
+      <c r="C96">
+        <v>-65.37811829646103</v>
+      </c>
+      <c r="D96">
+        <v>29.70503387144374</v>
+      </c>
+      <c r="E96">
+        <v>106.3393732658784</v>
+      </c>
+      <c r="F96">
+        <v>107.4831521679048</v>
+      </c>
+      <c r="G96">
+        <v>12.4</v>
+      </c>
+      <c r="H96">
+        <v>113.2</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>4.6</v>
+      </c>
+      <c r="K96">
+        <v>2.61</v>
+      </c>
+      <c r="L96">
+        <v>1.99</v>
+      </c>
+      <c r="M96">
+        <v>19.74465505324411</v>
+      </c>
+      <c r="N96">
+        <v>-17.75465505324411</v>
+      </c>
+      <c r="O96">
+        <v>-3.37338446011638</v>
+      </c>
+      <c r="P96">
+        <v>-14.38127059312773</v>
+      </c>
+      <c r="Q96">
+        <v>-11.77127059312773</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>1.081606887771482</v>
+      </c>
+      <c r="T96">
+        <v>20.21162152568328</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.01914948622705247</v>
+      </c>
+      <c r="W96">
+        <v>0.1801822393800905</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.1007867696160656</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2360117182835739</v>
+      </c>
+      <c r="C97">
+        <v>-66.75006469308224</v>
+      </c>
+      <c r="D97">
+        <v>29.47652526384278</v>
+      </c>
+      <c r="E97">
+        <v>107.4828110548987</v>
+      </c>
+      <c r="F97">
+        <v>108.626589956925</v>
+      </c>
+      <c r="G97">
+        <v>12.4</v>
+      </c>
+      <c r="H97">
+        <v>113.2</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>4.6</v>
+      </c>
+      <c r="K97">
+        <v>2.61</v>
+      </c>
+      <c r="L97">
+        <v>1.99</v>
+      </c>
+      <c r="M97">
+        <v>19.95470457508712</v>
+      </c>
+      <c r="N97">
+        <v>-17.96470457508713</v>
+      </c>
+      <c r="O97">
+        <v>-3.413293869266554</v>
+      </c>
+      <c r="P97">
+        <v>-14.55141070582057</v>
+      </c>
+      <c r="Q97">
+        <v>-11.94141070582057</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.296068265325778</v>
+      </c>
+      <c r="T97">
+        <v>24.25394583081995</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.01894791268782034</v>
+      </c>
+      <c r="W97">
+        <v>0.1802192684392474</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.09972585625168595</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2377557182835738</v>
+      </c>
+      <c r="C98">
+        <v>-68.11852228220366</v>
+      </c>
+      <c r="D98">
+        <v>29.25150546374162</v>
+      </c>
+      <c r="E98">
+        <v>108.6262488439189</v>
+      </c>
+      <c r="F98">
+        <v>109.7700277459453</v>
+      </c>
+      <c r="G98">
+        <v>12.4</v>
+      </c>
+      <c r="H98">
+        <v>113.2</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>4.6</v>
+      </c>
+      <c r="K98">
+        <v>2.61</v>
+      </c>
+      <c r="L98">
+        <v>1.99</v>
+      </c>
+      <c r="M98">
+        <v>20.16475409693015</v>
+      </c>
+      <c r="N98">
+        <v>-18.17475409693015</v>
+      </c>
+      <c r="O98">
+        <v>-3.453203278416728</v>
+      </c>
+      <c r="P98">
+        <v>-14.72155081851342</v>
+      </c>
+      <c r="Q98">
+        <v>-12.11155081851342</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.617760331657219</v>
+      </c>
+      <c r="T98">
+        <v>30.31743228852487</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.01875053859732221</v>
+      </c>
+      <c r="W98">
+        <v>0.1802555260596719</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.09868704524906424</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2394997182835739</v>
+      </c>
+      <c r="C99">
+        <v>-69.48357035775749</v>
+      </c>
+      <c r="D99">
+        <v>29.02989517720806</v>
+      </c>
+      <c r="E99">
+        <v>109.7696866329392</v>
+      </c>
+      <c r="F99">
+        <v>110.9134655349655</v>
+      </c>
+      <c r="G99">
+        <v>12.4</v>
+      </c>
+      <c r="H99">
+        <v>113.2</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>4.6</v>
+      </c>
+      <c r="K99">
+        <v>2.61</v>
+      </c>
+      <c r="L99">
+        <v>1.99</v>
+      </c>
+      <c r="M99">
+        <v>20.37480361877317</v>
+      </c>
+      <c r="N99">
+        <v>-18.38480361877317</v>
+      </c>
+      <c r="O99">
+        <v>-3.493112687566903</v>
+      </c>
+      <c r="P99">
+        <v>-14.89169093120627</v>
+      </c>
+      <c r="Q99">
+        <v>-12.28169093120627</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>2.153913775542959</v>
+      </c>
+      <c r="T99">
+        <v>40.4232430513665</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.01855723407570033</v>
+      </c>
+      <c r="W99">
+        <v>0.1802910361002938</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.09766965303000164</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
         <v>0.98</v>
       </c>
-      <c r="Q4">
-        <v>0.01734513274336283</v>
-      </c>
-      <c r="R4">
-        <v>-0.01261261261261261</v>
-      </c>
-      <c r="S4">
-        <v>0.001000000000000001</v>
-      </c>
-      <c r="T4">
-        <v>0.001019367991845057</v>
-      </c>
-      <c r="U4">
-        <v>23.2</v>
-      </c>
-      <c r="V4">
-        <v>0.4106194690265487</v>
-      </c>
-      <c r="W4">
-        <v>-0.4148424986652429</v>
-      </c>
-      <c r="X4">
-        <v>0.1037982086243324</v>
-      </c>
-      <c r="Y4">
-        <v>-0.5186407072895753</v>
-      </c>
-      <c r="Z4">
-        <v>0.4549438641953244</v>
-      </c>
-      <c r="AA4">
-        <v>-0.2154751447758844</v>
-      </c>
-      <c r="AB4">
-        <v>0.09600663320938252</v>
-      </c>
-      <c r="AC4">
-        <v>-0.3114817779852669</v>
-      </c>
-      <c r="AD4">
-        <v>3.57</v>
-      </c>
-      <c r="AE4">
-        <v>3.545733395335439</v>
-      </c>
-      <c r="AF4">
-        <v>7.115733395335439</v>
-      </c>
-      <c r="AG4">
-        <v>-16.08426660466456</v>
-      </c>
-      <c r="AH4">
-        <v>0.1118549298349706</v>
-      </c>
-      <c r="AI4">
-        <v>0.06409662106177123</v>
-      </c>
-      <c r="AJ4">
-        <v>-0.3979704252136847</v>
-      </c>
-      <c r="AK4">
-        <v>-0.1831592811763605</v>
-      </c>
-      <c r="AL4">
-        <v>0.058</v>
-      </c>
-      <c r="AM4">
-        <v>-0.107</v>
-      </c>
-      <c r="AN4">
-        <v>-0.147887323943662</v>
-      </c>
-      <c r="AO4">
-        <v>-531.0344827586207</v>
-      </c>
-      <c r="AP4">
-        <v>0.666291077243768</v>
-      </c>
-      <c r="AQ4">
-        <v>287.8504672897196</v>
+      <c r="B100">
+        <v>0.2412437182835739</v>
+      </c>
+      <c r="C100">
+        <v>-70.84528582881074</v>
+      </c>
+      <c r="D100">
+        <v>28.81161749517506</v>
+      </c>
+      <c r="E100">
+        <v>110.9131244219595</v>
+      </c>
+      <c r="F100">
+        <v>112.0569033239858</v>
+      </c>
+      <c r="G100">
+        <v>12.4</v>
+      </c>
+      <c r="H100">
+        <v>113.2</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>4.6</v>
+      </c>
+      <c r="K100">
+        <v>2.61</v>
+      </c>
+      <c r="L100">
+        <v>1.99</v>
+      </c>
+      <c r="M100">
+        <v>20.58485314061619</v>
+      </c>
+      <c r="N100">
+        <v>-18.59485314061619</v>
+      </c>
+      <c r="O100">
+        <v>-3.533022096717077</v>
+      </c>
+      <c r="P100">
+        <v>-15.06183104389912</v>
+      </c>
+      <c r="Q100">
+        <v>-12.45183104389912</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>3.226220663314439</v>
+      </c>
+      <c r="T100">
+        <v>60.63486457704975</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.01836787454431564</v>
+      </c>
+      <c r="W100">
+        <v>0.1803258214462092</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.0966730239174507</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2429877182835739</v>
+      </c>
+      <c r="C101">
+        <v>-72.20374330855607</v>
+      </c>
+      <c r="D101">
+        <v>28.59659780444999</v>
+      </c>
+      <c r="E101">
+        <v>112.0565622109797</v>
+      </c>
+      <c r="F101">
+        <v>113.2003411130061</v>
+      </c>
+      <c r="G101">
+        <v>12.4</v>
+      </c>
+      <c r="H101">
+        <v>113.2</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>4.6</v>
+      </c>
+      <c r="K101">
+        <v>2.61</v>
+      </c>
+      <c r="L101">
+        <v>1.99</v>
+      </c>
+      <c r="M101">
+        <v>20.79490266245922</v>
+      </c>
+      <c r="N101">
+        <v>-18.80490266245922</v>
+      </c>
+      <c r="O101">
+        <v>-3.572931505867251</v>
+      </c>
+      <c r="P101">
+        <v>-15.23197115659197</v>
+      </c>
+      <c r="Q101">
+        <v>-12.62197115659197</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>6.443141326628878</v>
+      </c>
+      <c r="T101">
+        <v>121.2697291540995</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.01818234045800942</v>
+      </c>
+      <c r="W101">
+        <v>0.1803599040578637</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.09569652872636525</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
